--- a/consolidado5.xlsx
+++ b/consolidado5.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V505"/>
+  <dimension ref="A1:V506"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,7 +491,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2023/11/02</t>
+          <t>2023/11/10</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -556,7 +556,7 @@
         <v>703</v>
       </c>
       <c r="S2" t="n">
-        <v>9973</v>
+        <v>10001</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -565,7 +565,7 @@
       </c>
       <c r="U2" t="inlineStr"/>
       <c r="V2" s="2" t="n">
-        <v>45232</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="3">
@@ -581,7 +581,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2023/10/12</t>
+          <t>2023/11/10</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -625,7 +625,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="n">
@@ -638,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>19771</v>
+        <v>25379</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -647,7 +651,7 @@
       </c>
       <c r="U3" t="inlineStr"/>
       <c r="V3" s="2" t="n">
-        <v>45211</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="4">
@@ -1135,7 +1139,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2023/10/06</t>
+          <t>2023/11/07</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1179,7 +1183,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="n">
@@ -1192,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>1000</v>
+        <v>1024</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1201,7 +1209,7 @@
       </c>
       <c r="U12" t="inlineStr"/>
       <c r="V12" s="2" t="n">
-        <v>45205</v>
+        <v>45237</v>
       </c>
     </row>
     <row r="13">
@@ -1271,7 +1279,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2023/10/03</t>
+          <t>2023/11/08</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
@@ -1309,7 +1317,7 @@
       </c>
       <c r="U14" t="inlineStr"/>
       <c r="V14" s="2" t="n">
-        <v>45202</v>
+        <v>45238</v>
       </c>
     </row>
     <row r="15">
@@ -1411,7 +1419,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2023/10/02</t>
+          <t>2023/11/06</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
@@ -1445,7 +1453,7 @@
       </c>
       <c r="U16" t="inlineStr"/>
       <c r="V16" s="2" t="n">
-        <v>45201</v>
+        <v>45236</v>
       </c>
     </row>
     <row r="17">
@@ -1527,7 +1535,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2023/10/11</t>
+          <t>2023/11/10</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
@@ -1565,7 +1573,7 @@
       </c>
       <c r="U18" t="inlineStr"/>
       <c r="V18" s="2" t="n">
-        <v>45210</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="19">
@@ -1865,7 +1873,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2023/10/11</t>
+          <t>2023/11/09</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
@@ -1909,7 +1917,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="n">
@@ -1922,7 +1934,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>536</v>
+        <v>559</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -1931,7 +1943,7 @@
       </c>
       <c r="U23" t="inlineStr"/>
       <c r="V23" s="2" t="n">
-        <v>45210</v>
+        <v>45239</v>
       </c>
     </row>
     <row r="24">
@@ -2079,7 +2091,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2023/10/19</t>
+          <t>2023/11/08</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -2135,7 +2147,7 @@
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="n">
-        <v>231</v>
+        <v>485</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -2144,7 +2156,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>7160</v>
+        <v>7623</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -2153,7 +2165,7 @@
       </c>
       <c r="U26" t="inlineStr"/>
       <c r="V26" s="2" t="n">
-        <v>45218</v>
+        <v>45238</v>
       </c>
     </row>
     <row r="27">
@@ -2519,7 +2531,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2023/10/06</t>
+          <t>2023/11/09</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -2557,7 +2569,7 @@
       </c>
       <c r="U32" t="inlineStr"/>
       <c r="V32" s="2" t="n">
-        <v>45205</v>
+        <v>45239</v>
       </c>
     </row>
     <row r="33">
@@ -2573,7 +2585,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/07</t>
         </is>
       </c>
       <c r="D33" t="inlineStr"/>
@@ -2622,7 +2634,7 @@
         <v>1</v>
       </c>
       <c r="S33" t="n">
-        <v>4689</v>
+        <v>4739</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
@@ -2631,7 +2643,7 @@
       </c>
       <c r="U33" t="inlineStr"/>
       <c r="V33" s="2" t="n">
-        <v>45215</v>
+        <v>45237</v>
       </c>
     </row>
     <row r="34">
@@ -3615,7 +3627,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/08</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -3663,7 +3675,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="n">
@@ -3676,7 +3692,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>1322038</v>
+        <v>1332370</v>
       </c>
       <c r="T46" t="inlineStr">
         <is>
@@ -3685,7 +3701,7 @@
       </c>
       <c r="U46" t="inlineStr"/>
       <c r="V46" s="2" t="n">
-        <v>45212</v>
+        <v>45238</v>
       </c>
     </row>
     <row r="47">
@@ -4639,7 +4655,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>2023/10/04</t>
+          <t>2023/11/06</t>
         </is>
       </c>
       <c r="D62" t="inlineStr"/>
@@ -4673,7 +4689,7 @@
       </c>
       <c r="U62" t="inlineStr"/>
       <c r="V62" s="2" t="n">
-        <v>45203</v>
+        <v>45236</v>
       </c>
     </row>
     <row r="63">
@@ -4689,7 +4705,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>2023/10/10</t>
+          <t>2023/11/06</t>
         </is>
       </c>
       <c r="D63" t="inlineStr"/>
@@ -4727,7 +4743,7 @@
       </c>
       <c r="U63" t="inlineStr"/>
       <c r="V63" s="2" t="n">
-        <v>45209</v>
+        <v>45236</v>
       </c>
     </row>
     <row r="64">
@@ -4743,7 +4759,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>2023/10/15</t>
+          <t>2023/11/10</t>
         </is>
       </c>
       <c r="D64" t="inlineStr"/>
@@ -4777,7 +4793,7 @@
       </c>
       <c r="U64" t="inlineStr"/>
       <c r="V64" s="2" t="n">
-        <v>45214</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="65">
@@ -5715,7 +5731,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>2023/10/10</t>
+          <t>2023/11/09</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -5763,7 +5779,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr"/>
       <c r="P78" t="n">
@@ -5776,7 +5796,7 @@
         <v>0</v>
       </c>
       <c r="S78" t="n">
-        <v>1354</v>
+        <v>1378</v>
       </c>
       <c r="T78" t="inlineStr">
         <is>
@@ -5785,7 +5805,7 @@
       </c>
       <c r="U78" t="inlineStr"/>
       <c r="V78" s="2" t="n">
-        <v>45209</v>
+        <v>45239</v>
       </c>
     </row>
     <row r="79">
@@ -6055,7 +6075,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/09</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -6103,7 +6123,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr"/>
       <c r="P82" t="n">
@@ -6116,7 +6140,7 @@
         <v>0</v>
       </c>
       <c r="S82" t="n">
-        <v>7429</v>
+        <v>8188</v>
       </c>
       <c r="T82" t="inlineStr">
         <is>
@@ -6125,7 +6149,7 @@
       </c>
       <c r="U82" t="inlineStr"/>
       <c r="V82" s="2" t="n">
-        <v>45215</v>
+        <v>45239</v>
       </c>
     </row>
     <row r="83">
@@ -6375,7 +6399,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>2023/10/11</t>
+          <t>2023/11/09</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -6423,7 +6447,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr"/>
       <c r="P86" t="n">
@@ -6436,7 +6464,7 @@
         <v>0</v>
       </c>
       <c r="S86" t="n">
-        <v>88039</v>
+        <v>89196</v>
       </c>
       <c r="T86" t="inlineStr">
         <is>
@@ -6445,7 +6473,7 @@
       </c>
       <c r="U86" t="inlineStr"/>
       <c r="V86" s="2" t="n">
-        <v>45210</v>
+        <v>45239</v>
       </c>
     </row>
     <row r="87">
@@ -6461,7 +6489,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>2023/10/05</t>
+          <t>2023/11/07</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -6509,7 +6537,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr"/>
       <c r="P87" t="n">
@@ -6522,7 +6554,7 @@
         <v>3</v>
       </c>
       <c r="S87" t="n">
-        <v>12937</v>
+        <v>13169</v>
       </c>
       <c r="T87" t="inlineStr">
         <is>
@@ -6531,7 +6563,7 @@
       </c>
       <c r="U87" t="inlineStr"/>
       <c r="V87" s="2" t="n">
-        <v>45204</v>
+        <v>45237</v>
       </c>
     </row>
     <row r="88">
@@ -6903,7 +6935,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>2023/10/12</t>
+          <t>2023/11/09</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -6951,7 +6983,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N92" t="inlineStr"/>
       <c r="O92" t="inlineStr"/>
       <c r="P92" t="n">
@@ -6964,7 +7000,7 @@
         <v>0</v>
       </c>
       <c r="S92" t="n">
-        <v>9393</v>
+        <v>9559</v>
       </c>
       <c r="T92" t="inlineStr">
         <is>
@@ -6973,7 +7009,7 @@
       </c>
       <c r="U92" t="inlineStr"/>
       <c r="V92" s="2" t="n">
-        <v>45211</v>
+        <v>45239</v>
       </c>
     </row>
     <row r="93">
@@ -6989,7 +7025,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/07</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -7037,7 +7073,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N93" t="inlineStr"/>
       <c r="O93" t="inlineStr"/>
       <c r="P93" t="n">
@@ -7050,7 +7090,7 @@
         <v>231</v>
       </c>
       <c r="S93" t="n">
-        <v>22232</v>
+        <v>22510</v>
       </c>
       <c r="T93" t="inlineStr">
         <is>
@@ -7059,7 +7099,7 @@
       </c>
       <c r="U93" t="inlineStr"/>
       <c r="V93" s="2" t="n">
-        <v>45212</v>
+        <v>45237</v>
       </c>
     </row>
     <row r="94">
@@ -7313,7 +7353,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>2023/10/12</t>
+          <t>2023/11/07</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -7361,7 +7401,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr"/>
       <c r="P97" t="n">
@@ -7374,7 +7418,7 @@
         <v>8</v>
       </c>
       <c r="S97" t="n">
-        <v>7708</v>
+        <v>7750</v>
       </c>
       <c r="T97" t="inlineStr">
         <is>
@@ -7383,7 +7427,7 @@
       </c>
       <c r="U97" t="inlineStr"/>
       <c r="V97" s="2" t="n">
-        <v>45211</v>
+        <v>45237</v>
       </c>
     </row>
     <row r="98">
@@ -7629,7 +7673,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>2023/11/02</t>
+          <t>2023/11/08</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -7702,7 +7746,7 @@
         <v>266</v>
       </c>
       <c r="S101" t="n">
-        <v>99922</v>
+        <v>101421</v>
       </c>
       <c r="T101" t="inlineStr">
         <is>
@@ -7711,7 +7755,7 @@
       </c>
       <c r="U101" t="inlineStr"/>
       <c r="V101" s="2" t="n">
-        <v>45232</v>
+        <v>45238</v>
       </c>
     </row>
     <row r="102">
@@ -7907,7 +7951,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>2023/10/12</t>
+          <t>2023/11/09</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -7972,7 +8016,7 @@
         <v>2</v>
       </c>
       <c r="S104" t="n">
-        <v>96708</v>
+        <v>98176</v>
       </c>
       <c r="T104" t="inlineStr">
         <is>
@@ -7981,7 +8025,7 @@
       </c>
       <c r="U104" t="inlineStr"/>
       <c r="V104" s="2" t="n">
-        <v>45211</v>
+        <v>45239</v>
       </c>
     </row>
     <row r="105">
@@ -7997,7 +8041,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>2023/10/04</t>
+          <t>2023/11/08</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -8045,7 +8089,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N105" t="inlineStr">
         <is>
           <t>x</t>
@@ -8062,7 +8110,7 @@
         <v>778</v>
       </c>
       <c r="S105" t="n">
-        <v>46637</v>
+        <v>47136</v>
       </c>
       <c r="T105" t="inlineStr">
         <is>
@@ -8071,7 +8119,7 @@
       </c>
       <c r="U105" t="inlineStr"/>
       <c r="V105" s="2" t="n">
-        <v>45203</v>
+        <v>45238</v>
       </c>
     </row>
     <row r="106">
@@ -9387,7 +9435,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>2023/10/24</t>
+          <t>2023/11/09</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -9457,7 +9505,7 @@
       </c>
       <c r="U122" t="inlineStr"/>
       <c r="V122" s="2" t="n">
-        <v>45223</v>
+        <v>45239</v>
       </c>
     </row>
     <row r="123">
@@ -10309,7 +10357,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>2023/10/17</t>
+          <t>2023/11/09</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -10352,7 +10400,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="L133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M133" t="inlineStr"/>
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr"/>
@@ -10366,7 +10418,7 @@
         <v>0</v>
       </c>
       <c r="S133" t="n">
-        <v>9208</v>
+        <v>9220</v>
       </c>
       <c r="T133" t="inlineStr">
         <is>
@@ -10375,7 +10427,7 @@
       </c>
       <c r="U133" t="inlineStr"/>
       <c r="V133" s="2" t="n">
-        <v>45216</v>
+        <v>45239</v>
       </c>
     </row>
     <row r="134">
@@ -10747,7 +10799,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>2023/10/06</t>
+          <t>2023/11/07</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -10795,7 +10847,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr"/>
       <c r="P138" t="n">
@@ -10805,10 +10861,10 @@
         <v>47</v>
       </c>
       <c r="R138" t="n">
-        <v>280</v>
+        <v>299</v>
       </c>
       <c r="S138" t="n">
-        <v>49045</v>
+        <v>49820</v>
       </c>
       <c r="T138" t="inlineStr">
         <is>
@@ -10817,7 +10873,7 @@
       </c>
       <c r="U138" t="inlineStr"/>
       <c r="V138" s="2" t="n">
-        <v>45205</v>
+        <v>45237</v>
       </c>
     </row>
     <row r="139">
@@ -10919,7 +10975,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>2023/11/03</t>
+          <t>2023/11/08</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -10967,7 +11023,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N140" t="inlineStr"/>
       <c r="O140" t="inlineStr"/>
       <c r="P140" t="n">
@@ -10980,7 +11040,7 @@
         <v>0</v>
       </c>
       <c r="S140" t="n">
-        <v>33827</v>
+        <v>33977</v>
       </c>
       <c r="T140" t="inlineStr">
         <is>
@@ -10989,7 +11049,7 @@
       </c>
       <c r="U140" t="inlineStr"/>
       <c r="V140" s="2" t="n">
-        <v>45233</v>
+        <v>45238</v>
       </c>
     </row>
     <row r="141">
@@ -11723,7 +11783,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/09</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -11788,7 +11848,7 @@
         <v>25</v>
       </c>
       <c r="S150" t="n">
-        <v>43311</v>
+        <v>43454</v>
       </c>
       <c r="T150" t="inlineStr">
         <is>
@@ -11797,7 +11857,7 @@
       </c>
       <c r="U150" t="inlineStr"/>
       <c r="V150" s="2" t="n">
-        <v>45212</v>
+        <v>45239</v>
       </c>
     </row>
     <row r="151">
@@ -11813,7 +11873,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>2023/10/11</t>
+          <t>2023/11/10</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -11861,7 +11921,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N151" t="inlineStr"/>
       <c r="O151" t="inlineStr"/>
       <c r="P151" t="n">
@@ -11874,7 +11938,7 @@
         <v>2669</v>
       </c>
       <c r="S151" t="n">
-        <v>46886</v>
+        <v>47738</v>
       </c>
       <c r="T151" t="inlineStr">
         <is>
@@ -11883,7 +11947,7 @@
       </c>
       <c r="U151" t="inlineStr"/>
       <c r="V151" s="2" t="n">
-        <v>45210</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="152">
@@ -12067,7 +12131,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>2023/10/05</t>
+          <t>2023/11/06</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -12115,7 +12179,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N154" t="inlineStr"/>
       <c r="O154" t="inlineStr"/>
       <c r="P154" t="n">
@@ -12128,7 +12196,7 @@
         <v>0</v>
       </c>
       <c r="S154" t="n">
-        <v>2494</v>
+        <v>2522</v>
       </c>
       <c r="T154" t="inlineStr">
         <is>
@@ -12137,7 +12205,7 @@
       </c>
       <c r="U154" t="inlineStr"/>
       <c r="V154" s="2" t="n">
-        <v>45204</v>
+        <v>45236</v>
       </c>
     </row>
     <row r="155">
@@ -12153,7 +12221,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>2023/10/04</t>
+          <t>2023/11/07</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -12201,7 +12269,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N155" t="inlineStr"/>
       <c r="O155" t="inlineStr"/>
       <c r="P155" t="n">
@@ -12214,7 +12286,7 @@
         <v>68</v>
       </c>
       <c r="S155" t="n">
-        <v>9764</v>
+        <v>9899</v>
       </c>
       <c r="T155" t="inlineStr">
         <is>
@@ -12223,7 +12295,7 @@
       </c>
       <c r="U155" t="inlineStr"/>
       <c r="V155" s="2" t="n">
-        <v>45203</v>
+        <v>45237</v>
       </c>
     </row>
     <row r="156">
@@ -12239,7 +12311,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>2023/11/03</t>
+          <t>2023/11/08</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -12277,9 +12349,21 @@
           <t>x</t>
         </is>
       </c>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N156" t="inlineStr"/>
       <c r="O156" t="inlineStr"/>
       <c r="P156" t="n">
@@ -12292,7 +12376,7 @@
         <v>0</v>
       </c>
       <c r="S156" t="n">
-        <v>3010</v>
+        <v>3133</v>
       </c>
       <c r="T156" t="inlineStr">
         <is>
@@ -12301,7 +12385,7 @@
       </c>
       <c r="U156" t="inlineStr"/>
       <c r="V156" s="2" t="n">
-        <v>45233</v>
+        <v>45238</v>
       </c>
     </row>
     <row r="157">
@@ -12395,7 +12479,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>2023/10/04</t>
+          <t>2023/11/08</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -12443,7 +12527,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N158" t="inlineStr"/>
       <c r="O158" t="inlineStr"/>
       <c r="P158" t="n">
@@ -12456,7 +12544,7 @@
         <v>3</v>
       </c>
       <c r="S158" t="n">
-        <v>5570</v>
+        <v>5721</v>
       </c>
       <c r="T158" t="inlineStr">
         <is>
@@ -12465,7 +12553,7 @@
       </c>
       <c r="U158" t="inlineStr"/>
       <c r="V158" s="2" t="n">
-        <v>45203</v>
+        <v>45238</v>
       </c>
     </row>
     <row r="159">
@@ -13031,7 +13119,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>2023/10/11</t>
+          <t>2023/11/09</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -13079,7 +13167,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N166" t="inlineStr"/>
       <c r="O166" t="inlineStr"/>
       <c r="P166" t="n">
@@ -13092,7 +13184,7 @@
         <v>1</v>
       </c>
       <c r="S166" t="n">
-        <v>18714</v>
+        <v>19133</v>
       </c>
       <c r="T166" t="inlineStr">
         <is>
@@ -13101,7 +13193,7 @@
       </c>
       <c r="U166" t="inlineStr"/>
       <c r="V166" s="2" t="n">
-        <v>45210</v>
+        <v>45239</v>
       </c>
     </row>
     <row r="167">
@@ -13289,7 +13381,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>2023/10/31</t>
+          <t>2023/11/08</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -13337,7 +13429,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N169" t="inlineStr"/>
       <c r="O169" t="inlineStr"/>
       <c r="P169" t="n">
@@ -13350,7 +13446,7 @@
         <v>32</v>
       </c>
       <c r="S169" t="n">
-        <v>21872</v>
+        <v>22279</v>
       </c>
       <c r="T169" t="inlineStr">
         <is>
@@ -13359,7 +13455,7 @@
       </c>
       <c r="U169" t="inlineStr"/>
       <c r="V169" s="2" t="n">
-        <v>45230</v>
+        <v>45238</v>
       </c>
     </row>
     <row r="170">
@@ -13769,7 +13865,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>2023/09/25</t>
+          <t>2023/11/10</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -13812,7 +13908,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="L175" t="inlineStr"/>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M175" t="inlineStr">
         <is>
           <t>x</t>
@@ -13827,10 +13927,10 @@
         <v>16</v>
       </c>
       <c r="R175" t="n">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="S175" t="n">
-        <v>41751</v>
+        <v>43370</v>
       </c>
       <c r="T175" t="inlineStr">
         <is>
@@ -13839,7 +13939,7 @@
       </c>
       <c r="U175" t="inlineStr"/>
       <c r="V175" s="2" t="n">
-        <v>45194</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="176">
@@ -14257,7 +14357,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>2023/11/03</t>
+          <t>2023/11/08</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -14305,7 +14405,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N181" t="inlineStr"/>
       <c r="O181" t="inlineStr"/>
       <c r="P181" t="n">
@@ -14318,7 +14422,7 @@
         <v>0</v>
       </c>
       <c r="S181" t="n">
-        <v>31049</v>
+        <v>31161</v>
       </c>
       <c r="T181" t="inlineStr">
         <is>
@@ -14327,7 +14431,7 @@
       </c>
       <c r="U181" t="inlineStr"/>
       <c r="V181" s="2" t="n">
-        <v>45233</v>
+        <v>45238</v>
       </c>
     </row>
     <row r="182">
@@ -14343,7 +14447,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>2023/10/03</t>
+          <t>2023/11/09</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -14391,7 +14495,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="M182" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N182" t="inlineStr"/>
       <c r="O182" t="inlineStr"/>
       <c r="P182" t="n">
@@ -14404,7 +14512,7 @@
         <v>191</v>
       </c>
       <c r="S182" t="n">
-        <v>18776</v>
+        <v>19305</v>
       </c>
       <c r="T182" t="inlineStr">
         <is>
@@ -14413,7 +14521,7 @@
       </c>
       <c r="U182" t="inlineStr"/>
       <c r="V182" s="2" t="n">
-        <v>45202</v>
+        <v>45239</v>
       </c>
     </row>
     <row r="183">
@@ -14429,7 +14537,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>2023/10/10</t>
+          <t>2023/11/07</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -14477,7 +14585,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="M183" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N183" t="inlineStr"/>
       <c r="O183" t="inlineStr"/>
       <c r="P183" t="n">
@@ -14490,7 +14602,7 @@
         <v>39</v>
       </c>
       <c r="S183" t="n">
-        <v>7962</v>
+        <v>7991</v>
       </c>
       <c r="T183" t="inlineStr">
         <is>
@@ -14503,7 +14615,7 @@
         </is>
       </c>
       <c r="V183" s="2" t="n">
-        <v>45209</v>
+        <v>45237</v>
       </c>
     </row>
     <row r="184">
@@ -14975,7 +15087,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>2023/11/02</t>
+          <t>2023/11/10</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -15023,7 +15135,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="M190" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N190" t="inlineStr"/>
       <c r="O190" t="inlineStr">
         <is>
@@ -15040,7 +15156,7 @@
         <v>15</v>
       </c>
       <c r="S190" t="n">
-        <v>23656</v>
+        <v>23838</v>
       </c>
       <c r="T190" t="inlineStr">
         <is>
@@ -15049,7 +15165,7 @@
       </c>
       <c r="U190" t="inlineStr"/>
       <c r="V190" s="2" t="n">
-        <v>45232</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="191">
@@ -15505,7 +15621,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>2023/10/11</t>
+          <t>2023/11/07</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -15553,7 +15669,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="M197" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N197" t="inlineStr">
         <is>
           <t>x</t>
@@ -15574,7 +15694,7 @@
         <v>502</v>
       </c>
       <c r="S197" t="n">
-        <v>39605</v>
+        <v>40007</v>
       </c>
       <c r="T197" t="inlineStr">
         <is>
@@ -15583,7 +15703,7 @@
       </c>
       <c r="U197" t="inlineStr"/>
       <c r="V197" s="2" t="n">
-        <v>45210</v>
+        <v>45237</v>
       </c>
     </row>
     <row r="198">
@@ -15599,7 +15719,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>2023/10/11</t>
+          <t>2023/11/06</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -15647,7 +15767,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="M198" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N198" t="inlineStr"/>
       <c r="O198" t="inlineStr"/>
       <c r="P198" t="n">
@@ -15660,7 +15784,7 @@
         <v>0</v>
       </c>
       <c r="S198" t="n">
-        <v>38359</v>
+        <v>38707</v>
       </c>
       <c r="T198" t="inlineStr">
         <is>
@@ -15669,7 +15793,7 @@
       </c>
       <c r="U198" t="inlineStr"/>
       <c r="V198" s="2" t="n">
-        <v>45210</v>
+        <v>45236</v>
       </c>
     </row>
     <row r="199">
@@ -16107,7 +16231,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/09</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -16177,7 +16301,7 @@
       </c>
       <c r="U204" t="inlineStr"/>
       <c r="V204" s="2" t="n">
-        <v>45215</v>
+        <v>45239</v>
       </c>
     </row>
     <row r="205">
@@ -16193,7 +16317,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>2023/10/25</t>
+          <t>2023/11/07</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -16241,7 +16365,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="M205" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N205" t="inlineStr"/>
       <c r="O205" t="inlineStr"/>
       <c r="P205" t="n">
@@ -16254,7 +16382,7 @@
         <v>426</v>
       </c>
       <c r="S205" t="n">
-        <v>90734</v>
+        <v>91052</v>
       </c>
       <c r="T205" t="inlineStr">
         <is>
@@ -16263,7 +16391,7 @@
       </c>
       <c r="U205" t="inlineStr"/>
       <c r="V205" s="2" t="n">
-        <v>45224</v>
+        <v>45237</v>
       </c>
     </row>
     <row r="206">
@@ -16279,7 +16407,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>2023/10/12</t>
+          <t>2023/11/07</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -16353,7 +16481,7 @@
       </c>
       <c r="U206" t="inlineStr"/>
       <c r="V206" s="2" t="n">
-        <v>45211</v>
+        <v>45237</v>
       </c>
     </row>
     <row r="207">
@@ -16369,7 +16497,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>2023/09/21</t>
+          <t>2023/11/08</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -16408,7 +16536,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="L207" t="inlineStr"/>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M207" t="inlineStr"/>
       <c r="N207" t="inlineStr"/>
       <c r="O207" t="inlineStr"/>
@@ -16422,7 +16554,7 @@
         <v>43</v>
       </c>
       <c r="S207" t="n">
-        <v>18541</v>
+        <v>18668</v>
       </c>
       <c r="T207" t="inlineStr">
         <is>
@@ -16431,7 +16563,7 @@
       </c>
       <c r="U207" t="inlineStr"/>
       <c r="V207" s="2" t="n">
-        <v>45190</v>
+        <v>45238</v>
       </c>
     </row>
     <row r="208">
@@ -17443,7 +17575,7 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>2023/10/04</t>
+          <t>2023/11/08</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
@@ -17491,7 +17623,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="M220" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N220" t="inlineStr"/>
       <c r="O220" t="inlineStr"/>
       <c r="P220" t="n">
@@ -17504,7 +17640,7 @@
         <v>53</v>
       </c>
       <c r="S220" t="n">
-        <v>11972</v>
+        <v>12052</v>
       </c>
       <c r="T220" t="inlineStr">
         <is>
@@ -17517,7 +17653,7 @@
         </is>
       </c>
       <c r="V220" s="2" t="n">
-        <v>45203</v>
+        <v>45238</v>
       </c>
     </row>
     <row r="221">
@@ -17533,7 +17669,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>2023/10/10</t>
+          <t>2023/11/07</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -17581,7 +17717,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="M221" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N221" t="inlineStr"/>
       <c r="O221" t="inlineStr"/>
       <c r="P221" t="n">
@@ -17594,7 +17734,7 @@
         <v>1</v>
       </c>
       <c r="S221" t="n">
-        <v>365880</v>
+        <v>367386</v>
       </c>
       <c r="T221" t="inlineStr">
         <is>
@@ -17603,7 +17743,7 @@
       </c>
       <c r="U221" t="inlineStr"/>
       <c r="V221" s="2" t="n">
-        <v>45209</v>
+        <v>45237</v>
       </c>
     </row>
     <row r="222">
@@ -18099,7 +18239,7 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>2023/10/04</t>
+          <t>2023/11/07</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -18147,7 +18287,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="M228" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N228" t="inlineStr"/>
       <c r="O228" t="inlineStr"/>
       <c r="P228" t="n">
@@ -18160,7 +18304,7 @@
         <v>179</v>
       </c>
       <c r="S228" t="n">
-        <v>35433</v>
+        <v>35683</v>
       </c>
       <c r="T228" t="inlineStr">
         <is>
@@ -18169,7 +18313,7 @@
       </c>
       <c r="U228" t="inlineStr"/>
       <c r="V228" s="2" t="n">
-        <v>45203</v>
+        <v>45237</v>
       </c>
     </row>
     <row r="229">
@@ -18185,7 +18329,7 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>2023/10/18</t>
+          <t>2023/11/09</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -18233,7 +18377,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="M229" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N229" t="inlineStr"/>
       <c r="O229" t="inlineStr"/>
       <c r="P229" t="n">
@@ -18246,7 +18394,7 @@
         <v>216</v>
       </c>
       <c r="S229" t="n">
-        <v>37382</v>
+        <v>38008</v>
       </c>
       <c r="T229" t="inlineStr">
         <is>
@@ -18255,7 +18403,7 @@
       </c>
       <c r="U229" t="inlineStr"/>
       <c r="V229" s="2" t="n">
-        <v>45217</v>
+        <v>45239</v>
       </c>
     </row>
     <row r="230">
@@ -18321,7 +18469,7 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>2023/10/10</t>
+          <t>2023/11/08</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -18369,7 +18517,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="M231" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N231" t="inlineStr"/>
       <c r="O231" t="inlineStr"/>
       <c r="P231" t="n">
@@ -18382,7 +18534,7 @@
         <v>74</v>
       </c>
       <c r="S231" t="n">
-        <v>32667</v>
+        <v>33246</v>
       </c>
       <c r="T231" t="inlineStr">
         <is>
@@ -18391,7 +18543,7 @@
       </c>
       <c r="U231" t="inlineStr"/>
       <c r="V231" s="2" t="n">
-        <v>45209</v>
+        <v>45238</v>
       </c>
     </row>
     <row r="232">
@@ -18669,7 +18821,7 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>2023/11/02</t>
+          <t>2023/11/06</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -18738,7 +18890,7 @@
         <v>104</v>
       </c>
       <c r="S235" t="n">
-        <v>48632</v>
+        <v>48842</v>
       </c>
       <c r="T235" t="inlineStr">
         <is>
@@ -18747,7 +18899,7 @@
       </c>
       <c r="U235" t="inlineStr"/>
       <c r="V235" s="2" t="n">
-        <v>45232</v>
+        <v>45236</v>
       </c>
     </row>
     <row r="236">
@@ -19173,7 +19325,7 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>2023/10/17</t>
+          <t>2023/11/09</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
@@ -19221,7 +19373,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M241" t="inlineStr"/>
+      <c r="M241" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N241" t="inlineStr"/>
       <c r="O241" t="inlineStr">
         <is>
@@ -19238,7 +19394,7 @@
         <v>4</v>
       </c>
       <c r="S241" t="n">
-        <v>128717</v>
+        <v>129073</v>
       </c>
       <c r="T241" t="inlineStr">
         <is>
@@ -19247,7 +19403,7 @@
       </c>
       <c r="U241" t="inlineStr"/>
       <c r="V241" s="2" t="n">
-        <v>45216</v>
+        <v>45239</v>
       </c>
     </row>
     <row r="242">
@@ -19263,7 +19419,7 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>2023/10/06</t>
+          <t>2023/11/07</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
@@ -19311,7 +19467,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M242" t="inlineStr"/>
+      <c r="M242" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N242" t="inlineStr"/>
       <c r="O242" t="inlineStr"/>
       <c r="P242" t="n">
@@ -19324,7 +19484,7 @@
         <v>120</v>
       </c>
       <c r="S242" t="n">
-        <v>5387</v>
+        <v>5464</v>
       </c>
       <c r="T242" t="inlineStr">
         <is>
@@ -19333,7 +19493,7 @@
       </c>
       <c r="U242" t="inlineStr"/>
       <c r="V242" s="2" t="n">
-        <v>45205</v>
+        <v>45237</v>
       </c>
     </row>
     <row r="243">
@@ -19493,7 +19653,7 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>2023/10/12</t>
+          <t>2023/11/09</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
@@ -19541,11 +19701,15 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M245" t="inlineStr"/>
+      <c r="M245" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N245" t="inlineStr"/>
       <c r="O245" t="inlineStr"/>
       <c r="P245" t="n">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="Q245" t="n">
         <v>428</v>
@@ -19554,7 +19718,7 @@
         <v>0</v>
       </c>
       <c r="S245" t="n">
-        <v>83690</v>
+        <v>84109</v>
       </c>
       <c r="T245" t="inlineStr">
         <is>
@@ -19563,7 +19727,7 @@
       </c>
       <c r="U245" t="inlineStr"/>
       <c r="V245" s="2" t="n">
-        <v>45211</v>
+        <v>45239</v>
       </c>
     </row>
     <row r="246">
@@ -20043,7 +20207,7 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>2023/10/17</t>
+          <t>2023/11/06</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
@@ -20113,7 +20277,7 @@
       </c>
       <c r="U252" t="inlineStr"/>
       <c r="V252" s="2" t="n">
-        <v>45216</v>
+        <v>45236</v>
       </c>
     </row>
     <row r="253">
@@ -20219,7 +20383,7 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/09</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
@@ -20267,7 +20431,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M254" t="inlineStr"/>
+      <c r="M254" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N254" t="inlineStr"/>
       <c r="O254" t="inlineStr"/>
       <c r="P254" t="n">
@@ -20280,7 +20448,7 @@
         <v>1</v>
       </c>
       <c r="S254" t="n">
-        <v>8945</v>
+        <v>9064</v>
       </c>
       <c r="T254" t="inlineStr">
         <is>
@@ -20289,7 +20457,7 @@
       </c>
       <c r="U254" t="inlineStr"/>
       <c r="V254" s="2" t="n">
-        <v>45212</v>
+        <v>45239</v>
       </c>
     </row>
     <row r="255">
@@ -20391,7 +20559,7 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>2023/10/18</t>
+          <t>2023/11/09</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
@@ -20439,7 +20607,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M256" t="inlineStr"/>
+      <c r="M256" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N256" t="inlineStr"/>
       <c r="O256" t="inlineStr"/>
       <c r="P256" t="n">
@@ -20452,7 +20624,7 @@
         <v>208</v>
       </c>
       <c r="S256" t="n">
-        <v>167231</v>
+        <v>168856</v>
       </c>
       <c r="T256" t="inlineStr">
         <is>
@@ -20461,7 +20633,7 @@
       </c>
       <c r="U256" t="inlineStr"/>
       <c r="V256" s="2" t="n">
-        <v>45217</v>
+        <v>45239</v>
       </c>
     </row>
     <row r="257">
@@ -20477,7 +20649,7 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>2023/10/11</t>
+          <t>2023/11/09</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
@@ -20525,7 +20697,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M257" t="inlineStr"/>
+      <c r="M257" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N257" t="inlineStr"/>
       <c r="O257" t="inlineStr"/>
       <c r="P257" t="n">
@@ -20538,7 +20714,7 @@
         <v>0</v>
       </c>
       <c r="S257" t="n">
-        <v>56055</v>
+        <v>58625</v>
       </c>
       <c r="T257" t="inlineStr">
         <is>
@@ -20547,7 +20723,7 @@
       </c>
       <c r="U257" t="inlineStr"/>
       <c r="V257" s="2" t="n">
-        <v>45210</v>
+        <v>45239</v>
       </c>
     </row>
     <row r="258">
@@ -20997,7 +21173,7 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/09</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
@@ -21067,7 +21243,7 @@
       </c>
       <c r="U263" t="inlineStr"/>
       <c r="V263" s="2" t="n">
-        <v>45215</v>
+        <v>45239</v>
       </c>
     </row>
     <row r="264">
@@ -21567,7 +21743,7 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>2023/10/31</t>
+          <t>2023/11/09</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
@@ -21632,7 +21808,7 @@
         <v>127</v>
       </c>
       <c r="S270" t="n">
-        <v>31107</v>
+        <v>31165</v>
       </c>
       <c r="T270" t="inlineStr">
         <is>
@@ -21641,7 +21817,7 @@
       </c>
       <c r="U270" t="inlineStr"/>
       <c r="V270" s="2" t="n">
-        <v>45230</v>
+        <v>45239</v>
       </c>
     </row>
     <row r="271">
@@ -21915,7 +22091,7 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>2023/10/06</t>
+          <t>2023/11/07</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
@@ -21951,7 +22127,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M274" t="inlineStr"/>
+      <c r="M274" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N274" t="inlineStr"/>
       <c r="O274" t="inlineStr"/>
       <c r="P274" t="n">
@@ -21964,7 +22144,7 @@
         <v>0</v>
       </c>
       <c r="S274" t="n">
-        <v>18194</v>
+        <v>18398</v>
       </c>
       <c r="T274" t="inlineStr">
         <is>
@@ -21973,7 +22153,7 @@
       </c>
       <c r="U274" t="inlineStr"/>
       <c r="V274" s="2" t="n">
-        <v>45205</v>
+        <v>45237</v>
       </c>
     </row>
     <row r="275">
@@ -22075,7 +22255,7 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>2023/10/03</t>
+          <t>2023/11/08</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
@@ -22123,7 +22303,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M276" t="inlineStr"/>
+      <c r="M276" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N276" t="inlineStr"/>
       <c r="O276" t="inlineStr"/>
       <c r="P276" t="n">
@@ -22136,7 +22320,7 @@
         <v>7</v>
       </c>
       <c r="S276" t="n">
-        <v>5256</v>
+        <v>5334</v>
       </c>
       <c r="T276" t="inlineStr">
         <is>
@@ -22145,7 +22329,7 @@
       </c>
       <c r="U276" t="inlineStr"/>
       <c r="V276" s="2" t="n">
-        <v>45202</v>
+        <v>45238</v>
       </c>
     </row>
     <row r="277">
@@ -22317,7 +22501,7 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/10</t>
         </is>
       </c>
       <c r="D279" t="inlineStr"/>
@@ -22361,7 +22545,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M279" t="inlineStr"/>
+      <c r="M279" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N279" t="inlineStr"/>
       <c r="O279" t="inlineStr"/>
       <c r="P279" t="n">
@@ -22374,7 +22562,7 @@
         <v>7</v>
       </c>
       <c r="S279" t="n">
-        <v>10247</v>
+        <v>10348</v>
       </c>
       <c r="T279" t="inlineStr">
         <is>
@@ -22383,7 +22571,7 @@
       </c>
       <c r="U279" t="inlineStr"/>
       <c r="V279" s="2" t="n">
-        <v>45215</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="280">
@@ -22673,7 +22861,7 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>2023/10/23</t>
+          <t>2023/11/07</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
@@ -22721,7 +22909,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M283" t="inlineStr"/>
+      <c r="M283" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N283" t="inlineStr">
         <is>
           <t>x</t>
@@ -22742,7 +22934,7 @@
         <v>0</v>
       </c>
       <c r="S283" t="n">
-        <v>16747</v>
+        <v>16908</v>
       </c>
       <c r="T283" t="inlineStr">
         <is>
@@ -22751,7 +22943,7 @@
       </c>
       <c r="U283" t="inlineStr"/>
       <c r="V283" s="2" t="n">
-        <v>45222</v>
+        <v>45237</v>
       </c>
     </row>
     <row r="284">
@@ -22857,7 +23049,7 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/07</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
@@ -22905,7 +23097,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M285" t="inlineStr"/>
+      <c r="M285" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N285" t="inlineStr"/>
       <c r="O285" t="inlineStr"/>
       <c r="P285" t="n">
@@ -22918,7 +23114,7 @@
         <v>628</v>
       </c>
       <c r="S285" t="n">
-        <v>39206</v>
+        <v>39672</v>
       </c>
       <c r="T285" t="inlineStr">
         <is>
@@ -22927,7 +23123,7 @@
       </c>
       <c r="U285" t="inlineStr"/>
       <c r="V285" s="2" t="n">
-        <v>45215</v>
+        <v>45237</v>
       </c>
     </row>
     <row r="286">
@@ -23033,7 +23229,7 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>2023/10/19</t>
+          <t>2023/11/09</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
@@ -23081,7 +23277,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M287" t="inlineStr"/>
+      <c r="M287" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N287" t="inlineStr"/>
       <c r="O287" t="inlineStr">
         <is>
@@ -23098,7 +23298,7 @@
         <v>1091</v>
       </c>
       <c r="S287" t="n">
-        <v>49217</v>
+        <v>49626</v>
       </c>
       <c r="T287" t="inlineStr">
         <is>
@@ -23107,7 +23307,7 @@
       </c>
       <c r="U287" t="inlineStr"/>
       <c r="V287" s="2" t="n">
-        <v>45218</v>
+        <v>45239</v>
       </c>
     </row>
     <row r="288">
@@ -23123,7 +23323,7 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>2023/10/10</t>
+          <t>2023/11/06</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
@@ -23171,7 +23371,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M288" t="inlineStr"/>
+      <c r="M288" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N288" t="inlineStr"/>
       <c r="O288" t="inlineStr"/>
       <c r="P288" t="n">
@@ -23184,7 +23388,7 @@
         <v>0</v>
       </c>
       <c r="S288" t="n">
-        <v>41962</v>
+        <v>42734</v>
       </c>
       <c r="T288" t="inlineStr">
         <is>
@@ -23193,7 +23397,7 @@
       </c>
       <c r="U288" t="inlineStr"/>
       <c r="V288" s="2" t="n">
-        <v>45209</v>
+        <v>45236</v>
       </c>
     </row>
     <row r="289">
@@ -23747,7 +23951,7 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>2023/10/11</t>
+          <t>2023/11/10</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
@@ -23795,7 +23999,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M296" t="inlineStr"/>
+      <c r="M296" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N296" t="inlineStr"/>
       <c r="O296" t="inlineStr"/>
       <c r="P296" t="n">
@@ -23808,7 +24016,7 @@
         <v>5</v>
       </c>
       <c r="S296" t="n">
-        <v>11463</v>
+        <v>11594</v>
       </c>
       <c r="T296" t="inlineStr">
         <is>
@@ -23817,7 +24025,7 @@
       </c>
       <c r="U296" t="inlineStr"/>
       <c r="V296" s="2" t="n">
-        <v>45210</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="297">
@@ -23919,7 +24127,7 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>2023/10/06</t>
+          <t>2023/11/07</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
@@ -23967,7 +24175,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M298" t="inlineStr"/>
+      <c r="M298" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N298" t="inlineStr"/>
       <c r="O298" t="inlineStr"/>
       <c r="P298" t="n">
@@ -23980,7 +24192,7 @@
         <v>1</v>
       </c>
       <c r="S298" t="n">
-        <v>110498</v>
+        <v>111823</v>
       </c>
       <c r="T298" t="inlineStr">
         <is>
@@ -23989,7 +24201,7 @@
       </c>
       <c r="U298" t="inlineStr"/>
       <c r="V298" s="2" t="n">
-        <v>45205</v>
+        <v>45237</v>
       </c>
     </row>
     <row r="299">
@@ -24707,7 +24919,7 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>2023/10/19</t>
+          <t>2023/11/07</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
@@ -24755,7 +24967,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M308" t="inlineStr"/>
+      <c r="M308" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N308" t="inlineStr"/>
       <c r="O308" t="inlineStr"/>
       <c r="P308" t="n">
@@ -24768,7 +24984,7 @@
         <v>424</v>
       </c>
       <c r="S308" t="n">
-        <v>16785</v>
+        <v>16872</v>
       </c>
       <c r="T308" t="inlineStr">
         <is>
@@ -24777,7 +24993,7 @@
       </c>
       <c r="U308" t="inlineStr"/>
       <c r="V308" s="2" t="n">
-        <v>45218</v>
+        <v>45237</v>
       </c>
     </row>
     <row r="309">
@@ -24937,7 +25153,7 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>2023/10/12</t>
+          <t>2023/11/08</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
@@ -24985,7 +25201,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M311" t="inlineStr"/>
+      <c r="M311" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N311" t="inlineStr"/>
       <c r="O311" t="inlineStr"/>
       <c r="P311" t="n">
@@ -24998,7 +25218,7 @@
         <v>0</v>
       </c>
       <c r="S311" t="n">
-        <v>123355</v>
+        <v>124327</v>
       </c>
       <c r="T311" t="inlineStr">
         <is>
@@ -25007,7 +25227,7 @@
       </c>
       <c r="U311" t="inlineStr"/>
       <c r="V311" s="2" t="n">
-        <v>45211</v>
+        <v>45238</v>
       </c>
     </row>
     <row r="312">
@@ -25023,7 +25243,7 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>2023/10/30</t>
+          <t>2023/11/07</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
@@ -25071,7 +25291,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M312" t="inlineStr"/>
+      <c r="M312" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N312" t="inlineStr"/>
       <c r="O312" t="inlineStr"/>
       <c r="P312" t="n">
@@ -25084,7 +25308,7 @@
         <v>145</v>
       </c>
       <c r="S312" t="n">
-        <v>70439</v>
+        <v>70652</v>
       </c>
       <c r="T312" t="inlineStr">
         <is>
@@ -25093,7 +25317,7 @@
       </c>
       <c r="U312" t="inlineStr"/>
       <c r="V312" s="2" t="n">
-        <v>45229</v>
+        <v>45237</v>
       </c>
     </row>
     <row r="313">
@@ -25195,7 +25419,7 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>2023/08/14</t>
+          <t>2023/11/09</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
@@ -25233,9 +25457,21 @@
           <t>x</t>
         </is>
       </c>
-      <c r="K314" t="inlineStr"/>
-      <c r="L314" t="inlineStr"/>
-      <c r="M314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L314" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M314" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N314" t="inlineStr"/>
       <c r="O314" t="inlineStr"/>
       <c r="P314" t="n">
@@ -25248,7 +25484,7 @@
         <v>1</v>
       </c>
       <c r="S314" t="n">
-        <v>94075</v>
+        <v>98311</v>
       </c>
       <c r="T314" t="inlineStr">
         <is>
@@ -25257,7 +25493,7 @@
       </c>
       <c r="U314" t="inlineStr"/>
       <c r="V314" s="2" t="n">
-        <v>45152</v>
+        <v>45239</v>
       </c>
     </row>
     <row r="315">
@@ -25617,7 +25853,7 @@
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/07</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
@@ -25657,7 +25893,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M319" t="inlineStr"/>
+      <c r="M319" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N319" t="inlineStr"/>
       <c r="O319" t="inlineStr"/>
       <c r="P319" t="n">
@@ -25670,7 +25910,7 @@
         <v>0</v>
       </c>
       <c r="S319" t="n">
-        <v>2861</v>
+        <v>2876</v>
       </c>
       <c r="T319" t="inlineStr">
         <is>
@@ -25683,7 +25923,7 @@
         </is>
       </c>
       <c r="V319" s="2" t="n">
-        <v>45212</v>
+        <v>45237</v>
       </c>
     </row>
     <row r="320">
@@ -26301,7 +26541,7 @@
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>2023/10/11</t>
+          <t>2023/11/10</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
@@ -26349,7 +26589,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M327" t="inlineStr"/>
+      <c r="M327" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N327" t="inlineStr"/>
       <c r="O327" t="inlineStr"/>
       <c r="P327" t="n">
@@ -26362,7 +26606,7 @@
         <v>2144</v>
       </c>
       <c r="S327" t="n">
-        <v>137573</v>
+        <v>142344</v>
       </c>
       <c r="T327" t="inlineStr">
         <is>
@@ -26371,7 +26615,7 @@
       </c>
       <c r="U327" t="inlineStr"/>
       <c r="V327" s="2" t="n">
-        <v>45210</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="328">
@@ -26735,7 +26979,7 @@
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/09</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
@@ -26783,7 +27027,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M332" t="inlineStr"/>
+      <c r="M332" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N332" t="inlineStr"/>
       <c r="O332" t="inlineStr">
         <is>
@@ -26800,7 +27048,7 @@
         <v>46</v>
       </c>
       <c r="S332" t="n">
-        <v>14019</v>
+        <v>15762</v>
       </c>
       <c r="T332" t="inlineStr">
         <is>
@@ -26809,7 +27057,7 @@
       </c>
       <c r="U332" t="inlineStr"/>
       <c r="V332" s="2" t="n">
-        <v>45215</v>
+        <v>45239</v>
       </c>
     </row>
     <row r="333">
@@ -26825,7 +27073,7 @@
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>2023/10/05</t>
+          <t>2023/11/08</t>
         </is>
       </c>
       <c r="D333" t="inlineStr"/>
@@ -26863,7 +27111,7 @@
       </c>
       <c r="U333" t="inlineStr"/>
       <c r="V333" s="2" t="n">
-        <v>45204</v>
+        <v>45238</v>
       </c>
     </row>
     <row r="334">
@@ -26937,7 +27185,7 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>2023/10/11</t>
+          <t>2023/11/09</t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
@@ -26985,7 +27233,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M335" t="inlineStr"/>
+      <c r="M335" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N335" t="inlineStr"/>
       <c r="O335" t="inlineStr"/>
       <c r="P335" t="n">
@@ -26998,7 +27250,7 @@
         <v>79</v>
       </c>
       <c r="S335" t="n">
-        <v>56241</v>
+        <v>57270</v>
       </c>
       <c r="T335" t="inlineStr">
         <is>
@@ -27007,7 +27259,7 @@
       </c>
       <c r="U335" t="inlineStr"/>
       <c r="V335" s="2" t="n">
-        <v>45210</v>
+        <v>45239</v>
       </c>
     </row>
     <row r="336">
@@ -27371,7 +27623,7 @@
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>2023/10/06</t>
+          <t>2023/11/08</t>
         </is>
       </c>
       <c r="D340" t="inlineStr"/>
@@ -27389,17 +27641,13 @@
           <t>x</t>
         </is>
       </c>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="L340" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
+      <c r="L340" t="inlineStr"/>
+      <c r="M340" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N340" t="inlineStr"/>
       <c r="O340" t="inlineStr"/>
       <c r="P340" t="n">
@@ -27412,7 +27660,7 @@
         <v>0</v>
       </c>
       <c r="S340" t="n">
-        <v>6520</v>
+        <v>6511</v>
       </c>
       <c r="T340" t="inlineStr">
         <is>
@@ -27421,7 +27669,7 @@
       </c>
       <c r="U340" t="inlineStr"/>
       <c r="V340" s="2" t="n">
-        <v>45205</v>
+        <v>45238</v>
       </c>
     </row>
     <row r="341">
@@ -27519,7 +27767,7 @@
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>2023/10/07</t>
+          <t>2023/11/08</t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
@@ -27567,7 +27815,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M342" t="inlineStr"/>
+      <c r="M342" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N342" t="inlineStr"/>
       <c r="O342" t="inlineStr"/>
       <c r="P342" t="n">
@@ -27580,7 +27832,7 @@
         <v>155</v>
       </c>
       <c r="S342" t="n">
-        <v>7929</v>
+        <v>8063</v>
       </c>
       <c r="T342" t="inlineStr">
         <is>
@@ -27589,7 +27841,7 @@
       </c>
       <c r="U342" t="inlineStr"/>
       <c r="V342" s="2" t="n">
-        <v>45206</v>
+        <v>45238</v>
       </c>
     </row>
     <row r="343">
@@ -27691,7 +27943,7 @@
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>2023/10/03</t>
+          <t>2023/11/04</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
@@ -27739,7 +27991,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M344" t="inlineStr"/>
+      <c r="M344" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N344" t="inlineStr"/>
       <c r="O344" t="inlineStr"/>
       <c r="P344" t="n">
@@ -27752,7 +28008,7 @@
         <v>0</v>
       </c>
       <c r="S344" t="n">
-        <v>17381</v>
+        <v>18190</v>
       </c>
       <c r="T344" t="inlineStr">
         <is>
@@ -27761,7 +28017,7 @@
       </c>
       <c r="U344" t="inlineStr"/>
       <c r="V344" s="2" t="n">
-        <v>45202</v>
+        <v>45234</v>
       </c>
     </row>
     <row r="345">
@@ -28351,7 +28607,7 @@
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>2023/09/29</t>
+          <t>2023/11/09</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
@@ -28384,9 +28640,21 @@
           <t>x</t>
         </is>
       </c>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
-      <c r="L352" t="inlineStr"/>
+      <c r="J352" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L352" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M352" t="inlineStr"/>
       <c r="N352" t="inlineStr"/>
       <c r="O352" t="inlineStr"/>
@@ -28400,7 +28668,7 @@
         <v>0</v>
       </c>
       <c r="S352" t="n">
-        <v>2862</v>
+        <v>2939</v>
       </c>
       <c r="T352" t="inlineStr">
         <is>
@@ -28409,7 +28677,7 @@
       </c>
       <c r="U352" t="inlineStr"/>
       <c r="V352" s="2" t="n">
-        <v>45198</v>
+        <v>45239</v>
       </c>
     </row>
     <row r="353">
@@ -28687,7 +28955,7 @@
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>2023/10/05</t>
+          <t>2023/11/06</t>
         </is>
       </c>
       <c r="D356" t="inlineStr">
@@ -28735,7 +29003,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M356" t="inlineStr"/>
+      <c r="M356" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N356" t="inlineStr"/>
       <c r="O356" t="inlineStr"/>
       <c r="P356" t="n">
@@ -28748,7 +29020,7 @@
         <v>0</v>
       </c>
       <c r="S356" t="n">
-        <v>4750</v>
+        <v>4779</v>
       </c>
       <c r="T356" t="inlineStr">
         <is>
@@ -28757,7 +29029,7 @@
       </c>
       <c r="U356" t="inlineStr"/>
       <c r="V356" s="2" t="n">
-        <v>45204</v>
+        <v>45236</v>
       </c>
     </row>
     <row r="357">
@@ -28773,7 +29045,7 @@
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/08</t>
         </is>
       </c>
       <c r="D357" t="inlineStr">
@@ -28821,7 +29093,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M357" t="inlineStr"/>
+      <c r="M357" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N357" t="inlineStr"/>
       <c r="O357" t="inlineStr"/>
       <c r="P357" t="n">
@@ -28834,7 +29110,7 @@
         <v>288</v>
       </c>
       <c r="S357" t="n">
-        <v>17995</v>
+        <v>18222</v>
       </c>
       <c r="T357" t="inlineStr">
         <is>
@@ -28847,7 +29123,7 @@
         </is>
       </c>
       <c r="V357" s="2" t="n">
-        <v>45212</v>
+        <v>45238</v>
       </c>
     </row>
     <row r="358">
@@ -28863,7 +29139,7 @@
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>2023/10/12</t>
+          <t>2023/11/09</t>
         </is>
       </c>
       <c r="D358" t="inlineStr">
@@ -28911,8 +29187,16 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M358" t="inlineStr"/>
-      <c r="N358" t="inlineStr"/>
+      <c r="M358" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N358" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O358" t="inlineStr"/>
       <c r="P358" t="n">
         <v>0</v>
@@ -28924,7 +29208,7 @@
         <v>85</v>
       </c>
       <c r="S358" t="n">
-        <v>2967</v>
+        <v>3105</v>
       </c>
       <c r="T358" t="inlineStr">
         <is>
@@ -28933,7 +29217,7 @@
       </c>
       <c r="U358" t="inlineStr"/>
       <c r="V358" s="2" t="n">
-        <v>45211</v>
+        <v>45239</v>
       </c>
     </row>
     <row r="359">
@@ -28949,7 +29233,7 @@
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>2023/10/11</t>
+          <t>2023/11/08</t>
         </is>
       </c>
       <c r="D359" t="inlineStr">
@@ -28997,7 +29281,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M359" t="inlineStr"/>
+      <c r="M359" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N359" t="inlineStr"/>
       <c r="O359" t="inlineStr"/>
       <c r="P359" t="n">
@@ -29010,7 +29298,7 @@
         <v>0</v>
       </c>
       <c r="S359" t="n">
-        <v>17762</v>
+        <v>18701</v>
       </c>
       <c r="T359" t="inlineStr">
         <is>
@@ -29019,7 +29307,7 @@
       </c>
       <c r="U359" t="inlineStr"/>
       <c r="V359" s="2" t="n">
-        <v>45210</v>
+        <v>45238</v>
       </c>
     </row>
     <row r="360">
@@ -29253,7 +29541,7 @@
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>2023/10/12</t>
+          <t>2023/11/09</t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
@@ -29301,7 +29589,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M363" t="inlineStr"/>
+      <c r="M363" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N363" t="inlineStr"/>
       <c r="O363" t="inlineStr"/>
       <c r="P363" t="n">
@@ -29314,7 +29606,7 @@
         <v>1</v>
       </c>
       <c r="S363" t="n">
-        <v>34960</v>
+        <v>35420</v>
       </c>
       <c r="T363" t="inlineStr">
         <is>
@@ -29323,7 +29615,7 @@
       </c>
       <c r="U363" t="inlineStr"/>
       <c r="V363" s="2" t="n">
-        <v>45211</v>
+        <v>45239</v>
       </c>
     </row>
     <row r="364">
@@ -29429,7 +29721,7 @@
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>2023/10/25</t>
+          <t>2023/11/09</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
@@ -29477,7 +29769,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M365" t="inlineStr"/>
+      <c r="M365" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N365" t="inlineStr"/>
       <c r="O365" t="inlineStr"/>
       <c r="P365" t="n">
@@ -29490,7 +29786,7 @@
         <v>1749</v>
       </c>
       <c r="S365" t="n">
-        <v>225136</v>
+        <v>226296</v>
       </c>
       <c r="T365" t="inlineStr">
         <is>
@@ -29499,7 +29795,7 @@
       </c>
       <c r="U365" t="inlineStr"/>
       <c r="V365" s="2" t="n">
-        <v>45224</v>
+        <v>45239</v>
       </c>
     </row>
     <row r="366">
@@ -29753,7 +30049,7 @@
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/10</t>
         </is>
       </c>
       <c r="D369" t="inlineStr">
@@ -29823,7 +30119,7 @@
       </c>
       <c r="U369" t="inlineStr"/>
       <c r="V369" s="2" t="n">
-        <v>45215</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="370">
@@ -29975,7 +30271,7 @@
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>2023/10/06</t>
+          <t>2023/11/08</t>
         </is>
       </c>
       <c r="D372" t="inlineStr">
@@ -30048,7 +30344,7 @@
         <v>17</v>
       </c>
       <c r="S372" t="n">
-        <v>202648</v>
+        <v>206097</v>
       </c>
       <c r="T372" t="inlineStr">
         <is>
@@ -30057,7 +30353,7 @@
       </c>
       <c r="U372" t="inlineStr"/>
       <c r="V372" s="2" t="n">
-        <v>45205</v>
+        <v>45238</v>
       </c>
     </row>
     <row r="373">
@@ -30209,7 +30505,7 @@
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/07</t>
         </is>
       </c>
       <c r="D375" t="inlineStr">
@@ -30257,7 +30553,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M375" t="inlineStr"/>
+      <c r="M375" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N375" t="inlineStr"/>
       <c r="O375" t="inlineStr"/>
       <c r="P375" t="n">
@@ -30267,10 +30567,10 @@
         <v>0</v>
       </c>
       <c r="R375" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="S375" t="n">
-        <v>16231</v>
+        <v>16524</v>
       </c>
       <c r="T375" t="inlineStr">
         <is>
@@ -30279,7 +30579,7 @@
       </c>
       <c r="U375" t="inlineStr"/>
       <c r="V375" s="2" t="n">
-        <v>45212</v>
+        <v>45237</v>
       </c>
     </row>
     <row r="376">
@@ -30381,7 +30681,7 @@
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>2023/10/15</t>
+          <t>2023/11/09</t>
         </is>
       </c>
       <c r="D377" t="inlineStr">
@@ -30451,7 +30751,7 @@
       </c>
       <c r="U377" t="inlineStr"/>
       <c r="V377" s="2" t="n">
-        <v>45214</v>
+        <v>45239</v>
       </c>
     </row>
     <row r="378">
@@ -30553,7 +30853,7 @@
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>2023/10/14</t>
+          <t>2023/11/07</t>
         </is>
       </c>
       <c r="D379" t="inlineStr">
@@ -30601,7 +30901,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M379" t="inlineStr"/>
+      <c r="M379" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N379" t="inlineStr"/>
       <c r="O379" t="inlineStr"/>
       <c r="P379" t="n">
@@ -30614,7 +30918,7 @@
         <v>0</v>
       </c>
       <c r="S379" t="n">
-        <v>530</v>
+        <v>627</v>
       </c>
       <c r="T379" t="inlineStr">
         <is>
@@ -30623,7 +30927,7 @@
       </c>
       <c r="U379" t="inlineStr"/>
       <c r="V379" s="2" t="n">
-        <v>45213</v>
+        <v>45237</v>
       </c>
     </row>
     <row r="380">
@@ -31227,7 +31531,7 @@
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>2023/10/02</t>
+          <t>2023/11/09</t>
         </is>
       </c>
       <c r="D388" t="inlineStr">
@@ -31275,7 +31579,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M388" t="inlineStr"/>
+      <c r="M388" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N388" t="inlineStr"/>
       <c r="O388" t="inlineStr"/>
       <c r="P388" t="n">
@@ -31288,7 +31596,7 @@
         <v>0</v>
       </c>
       <c r="S388" t="n">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="T388" t="inlineStr">
         <is>
@@ -31297,7 +31605,7 @@
       </c>
       <c r="U388" t="inlineStr"/>
       <c r="V388" s="2" t="n">
-        <v>45201</v>
+        <v>45239</v>
       </c>
     </row>
     <row r="389">
@@ -31873,7 +32181,7 @@
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>2023/10/11</t>
+          <t>2023/11/07</t>
         </is>
       </c>
       <c r="D397" t="inlineStr">
@@ -31901,7 +32209,11 @@
         </is>
       </c>
       <c r="L397" t="inlineStr"/>
-      <c r="M397" t="inlineStr"/>
+      <c r="M397" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N397" t="inlineStr"/>
       <c r="O397" t="inlineStr"/>
       <c r="P397" t="n">
@@ -31914,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="S397" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="T397" t="inlineStr">
         <is>
@@ -31923,7 +32235,7 @@
       </c>
       <c r="U397" t="inlineStr"/>
       <c r="V397" s="2" t="n">
-        <v>45210</v>
+        <v>45237</v>
       </c>
     </row>
     <row r="398">
@@ -32001,7 +32313,7 @@
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>2023/10/12</t>
+          <t>2023/11/09</t>
         </is>
       </c>
       <c r="D399" t="inlineStr">
@@ -32045,7 +32357,11 @@
         </is>
       </c>
       <c r="L399" t="inlineStr"/>
-      <c r="M399" t="inlineStr"/>
+      <c r="M399" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N399" t="inlineStr"/>
       <c r="O399" t="inlineStr"/>
       <c r="P399" t="n">
@@ -32058,7 +32374,7 @@
         <v>4</v>
       </c>
       <c r="S399" t="n">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="T399" t="inlineStr">
         <is>
@@ -32067,7 +32383,7 @@
       </c>
       <c r="U399" t="inlineStr"/>
       <c r="V399" s="2" t="n">
-        <v>45211</v>
+        <v>45239</v>
       </c>
     </row>
     <row r="400">
@@ -32153,7 +32469,7 @@
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>2023/10/06</t>
+          <t>2023/11/06</t>
         </is>
       </c>
       <c r="D401" t="inlineStr"/>
@@ -32193,7 +32509,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M401" t="inlineStr"/>
+      <c r="M401" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N401" t="inlineStr"/>
       <c r="O401" t="inlineStr"/>
       <c r="P401" t="n">
@@ -32206,7 +32526,7 @@
         <v>0</v>
       </c>
       <c r="S401" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="T401" t="inlineStr">
         <is>
@@ -32215,7 +32535,7 @@
       </c>
       <c r="U401" t="inlineStr"/>
       <c r="V401" s="2" t="n">
-        <v>45205</v>
+        <v>45236</v>
       </c>
     </row>
     <row r="402">
@@ -32387,7 +32707,7 @@
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>2023/10/11</t>
+          <t>2023/11/10</t>
         </is>
       </c>
       <c r="D404" t="inlineStr">
@@ -32427,7 +32747,11 @@
       </c>
       <c r="K404" t="inlineStr"/>
       <c r="L404" t="inlineStr"/>
-      <c r="M404" t="inlineStr"/>
+      <c r="M404" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N404" t="inlineStr"/>
       <c r="O404" t="inlineStr"/>
       <c r="P404" t="n">
@@ -32440,7 +32764,7 @@
         <v>0</v>
       </c>
       <c r="S404" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="T404" t="inlineStr">
         <is>
@@ -32449,7 +32773,7 @@
       </c>
       <c r="U404" t="inlineStr"/>
       <c r="V404" s="2" t="n">
-        <v>45210</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="405">
@@ -32683,7 +33007,7 @@
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>2023/10/11</t>
+          <t>2023/11/10</t>
         </is>
       </c>
       <c r="D408" t="inlineStr"/>
@@ -32733,7 +33057,7 @@
       </c>
       <c r="U408" t="inlineStr"/>
       <c r="V408" s="2" t="n">
-        <v>45210</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="409">
@@ -32831,7 +33155,7 @@
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>2023/10/06</t>
+          <t>2023/11/10</t>
         </is>
       </c>
       <c r="D410" t="inlineStr">
@@ -32879,7 +33203,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M410" t="inlineStr"/>
+      <c r="M410" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N410" t="inlineStr"/>
       <c r="O410" t="inlineStr"/>
       <c r="P410" t="n">
@@ -32892,7 +33220,7 @@
         <v>0</v>
       </c>
       <c r="S410" t="n">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="T410" t="inlineStr">
         <is>
@@ -32901,7 +33229,7 @@
       </c>
       <c r="U410" t="inlineStr"/>
       <c r="V410" s="2" t="n">
-        <v>45205</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="411">
@@ -33079,7 +33407,7 @@
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>2023/10/04</t>
+          <t>2023/11/08</t>
         </is>
       </c>
       <c r="D414" t="inlineStr"/>
@@ -33111,7 +33439,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M414" t="inlineStr"/>
+      <c r="M414" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N414" t="inlineStr"/>
       <c r="O414" t="inlineStr"/>
       <c r="P414" t="n">
@@ -33124,7 +33456,7 @@
         <v>0</v>
       </c>
       <c r="S414" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="T414" t="inlineStr">
         <is>
@@ -33133,7 +33465,7 @@
       </c>
       <c r="U414" t="inlineStr"/>
       <c r="V414" s="2" t="n">
-        <v>45203</v>
+        <v>45238</v>
       </c>
     </row>
     <row r="415">
@@ -33219,7 +33551,7 @@
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>2023/10/11</t>
+          <t>2023/11/10</t>
         </is>
       </c>
       <c r="D416" t="inlineStr"/>
@@ -33247,7 +33579,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M416" t="inlineStr"/>
+      <c r="M416" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N416" t="inlineStr"/>
       <c r="O416" t="inlineStr"/>
       <c r="P416" t="n">
@@ -33260,7 +33596,7 @@
         <v>0</v>
       </c>
       <c r="S416" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="T416" t="inlineStr">
         <is>
@@ -33269,7 +33605,7 @@
       </c>
       <c r="U416" t="inlineStr"/>
       <c r="V416" s="2" t="n">
-        <v>45210</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="417">
@@ -33613,7 +33949,7 @@
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/10</t>
         </is>
       </c>
       <c r="D421" t="inlineStr">
@@ -33656,8 +33992,16 @@
           <t>x</t>
         </is>
       </c>
-      <c r="L421" t="inlineStr"/>
-      <c r="M421" t="inlineStr"/>
+      <c r="L421" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M421" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N421" t="inlineStr"/>
       <c r="O421" t="inlineStr"/>
       <c r="P421" t="n">
@@ -33670,7 +34014,7 @@
         <v>0</v>
       </c>
       <c r="S421" t="n">
-        <v>6166</v>
+        <v>6293</v>
       </c>
       <c r="T421" t="inlineStr">
         <is>
@@ -33679,7 +34023,7 @@
       </c>
       <c r="U421" t="inlineStr"/>
       <c r="V421" s="2" t="n">
-        <v>45215</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="422">
@@ -34865,7 +35209,7 @@
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>2023/10/11</t>
+          <t>2023/11/10</t>
         </is>
       </c>
       <c r="D439" t="inlineStr"/>
@@ -34897,7 +35241,11 @@
       </c>
       <c r="K439" t="inlineStr"/>
       <c r="L439" t="inlineStr"/>
-      <c r="M439" t="inlineStr"/>
+      <c r="M439" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N439" t="inlineStr"/>
       <c r="O439" t="inlineStr"/>
       <c r="P439" t="n">
@@ -34910,7 +35258,7 @@
         <v>0</v>
       </c>
       <c r="S439" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="T439" t="inlineStr">
         <is>
@@ -34919,7 +35267,7 @@
       </c>
       <c r="U439" t="inlineStr"/>
       <c r="V439" s="2" t="n">
-        <v>45210</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="440">
@@ -35615,7 +35963,7 @@
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>2023/10/10</t>
+          <t>2023/11/06</t>
         </is>
       </c>
       <c r="D452" t="inlineStr"/>
@@ -35649,7 +35997,7 @@
       </c>
       <c r="U452" t="inlineStr"/>
       <c r="V452" s="2" t="n">
-        <v>45209</v>
+        <v>45236</v>
       </c>
     </row>
     <row r="453">
@@ -35815,7 +36163,7 @@
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>2023/10/04</t>
+          <t>2023/11/08</t>
         </is>
       </c>
       <c r="D456" t="inlineStr"/>
@@ -35849,7 +36197,7 @@
       </c>
       <c r="U456" t="inlineStr"/>
       <c r="V456" s="2" t="n">
-        <v>45203</v>
+        <v>45238</v>
       </c>
     </row>
     <row r="457">
@@ -36405,7 +36753,7 @@
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>2023/10/02</t>
+          <t>2023/11/08</t>
         </is>
       </c>
       <c r="D467" t="inlineStr"/>
@@ -36443,7 +36791,7 @@
       </c>
       <c r="U467" t="inlineStr"/>
       <c r="V467" s="2" t="n">
-        <v>45201</v>
+        <v>45238</v>
       </c>
     </row>
     <row r="468">
@@ -36454,48 +36802,32 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Deportes y Recreación de Talcahuano</t>
+          <t>Corporación Municipal de Deportes y Recreación de Molina</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>2023/11/03</t>
-        </is>
-      </c>
-      <c r="D468" t="inlineStr"/>
+          <t>2023/11/06</t>
+        </is>
+      </c>
+      <c r="D468" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="E468" t="inlineStr"/>
-      <c r="F468" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="F468" t="inlineStr"/>
       <c r="G468" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
       <c r="H468" t="inlineStr"/>
-      <c r="I468" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="J468" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="I468" t="inlineStr"/>
+      <c r="J468" t="inlineStr"/>
       <c r="K468" t="inlineStr"/>
-      <c r="L468" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M468" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L468" t="inlineStr"/>
+      <c r="M468" t="inlineStr"/>
       <c r="N468" t="inlineStr"/>
       <c r="O468" t="inlineStr"/>
       <c r="P468" t="n">
@@ -36508,16 +36840,16 @@
         <v>0</v>
       </c>
       <c r="S468" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="T468" t="inlineStr">
         <is>
-          <t>CM204</t>
+          <t>CM202</t>
         </is>
       </c>
       <c r="U468" t="inlineStr"/>
       <c r="V468" s="2" t="n">
-        <v>45233</v>
+        <v>45236</v>
       </c>
     </row>
     <row r="469">
@@ -36528,28 +36860,48 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>Corporacion de Deportes de la Ilustre Municipalidad de Curicó</t>
+          <t>Corporación Municipal de Deportes y Recreación de Talcahuano</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>2023/10/12</t>
+          <t>2023/11/03</t>
         </is>
       </c>
       <c r="D469" t="inlineStr"/>
       <c r="E469" t="inlineStr"/>
-      <c r="F469" t="inlineStr"/>
-      <c r="G469" t="inlineStr"/>
+      <c r="F469" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="G469" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="H469" t="inlineStr"/>
       <c r="I469" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="J469" t="inlineStr"/>
+      <c r="J469" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="K469" t="inlineStr"/>
-      <c r="L469" t="inlineStr"/>
-      <c r="M469" t="inlineStr"/>
+      <c r="L469" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M469" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N469" t="inlineStr"/>
       <c r="O469" t="inlineStr"/>
       <c r="P469" t="n">
@@ -36562,16 +36914,16 @@
         <v>0</v>
       </c>
       <c r="S469" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="T469" t="inlineStr">
         <is>
-          <t>CM250</t>
+          <t>CM204</t>
         </is>
       </c>
       <c r="U469" t="inlineStr"/>
       <c r="V469" s="2" t="n">
-        <v>45211</v>
+        <v>45233</v>
       </c>
     </row>
     <row r="470">
@@ -36582,24 +36934,24 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>Corporación Municipal Pueblito de Las Vizcachas</t>
+          <t>Corporacion de Deportes de la Ilustre Municipalidad de Curicó</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>2023/10/06</t>
+          <t>2023/10/12</t>
         </is>
       </c>
       <c r="D470" t="inlineStr"/>
       <c r="E470" t="inlineStr"/>
       <c r="F470" t="inlineStr"/>
       <c r="G470" t="inlineStr"/>
-      <c r="H470" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I470" t="inlineStr"/>
+      <c r="H470" t="inlineStr"/>
+      <c r="I470" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="J470" t="inlineStr"/>
       <c r="K470" t="inlineStr"/>
       <c r="L470" t="inlineStr"/>
@@ -36610,22 +36962,22 @@
         <v>0</v>
       </c>
       <c r="Q470" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R470" t="n">
         <v>0</v>
       </c>
       <c r="S470" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="T470" t="inlineStr">
         <is>
-          <t>CM269</t>
+          <t>CM250</t>
         </is>
       </c>
       <c r="U470" t="inlineStr"/>
       <c r="V470" s="2" t="n">
-        <v>45205</v>
+        <v>45211</v>
       </c>
     </row>
     <row r="471">
@@ -36636,58 +36988,50 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>Corporación Social y Cultural de Concepción (SEMCO)</t>
+          <t>Corporación Municipal Pueblito de Las Vizcachas</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>2023/10/20</t>
+          <t>2023/11/08</t>
         </is>
       </c>
       <c r="D471" t="inlineStr"/>
       <c r="E471" t="inlineStr"/>
       <c r="F471" t="inlineStr"/>
       <c r="G471" t="inlineStr"/>
-      <c r="H471" t="inlineStr"/>
+      <c r="H471" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="J471" t="inlineStr"/>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="inlineStr"/>
-      <c r="M471" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="M471" t="inlineStr"/>
       <c r="N471" t="inlineStr"/>
       <c r="O471" t="inlineStr"/>
       <c r="P471" t="n">
         <v>0</v>
       </c>
       <c r="Q471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R471" t="n">
         <v>0</v>
       </c>
       <c r="S471" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="T471" t="inlineStr">
         <is>
-          <t>CM278</t>
+          <t>CM269</t>
         </is>
       </c>
       <c r="U471" t="inlineStr"/>
       <c r="V471" s="2" t="n">
-        <v>45219</v>
+        <v>45238</v>
       </c>
     </row>
     <row r="472">
@@ -36698,32 +37042,36 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>Corporación de Deportes de San Clemente</t>
+          <t>Corporación Social y Cultural de Concepción (SEMCO)</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/10</t>
         </is>
       </c>
       <c r="D472" t="inlineStr"/>
-      <c r="E472" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="E472" t="inlineStr"/>
       <c r="F472" t="inlineStr"/>
       <c r="G472" t="inlineStr"/>
       <c r="H472" t="inlineStr"/>
-      <c r="I472" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="I472" t="inlineStr"/>
+      <c r="J472" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L472" t="inlineStr"/>
-      <c r="M472" t="inlineStr"/>
+      <c r="M472" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N472" t="inlineStr"/>
       <c r="O472" t="inlineStr"/>
       <c r="P472" t="n">
@@ -36736,16 +37084,16 @@
         <v>0</v>
       </c>
       <c r="S472" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="T472" t="inlineStr">
         <is>
-          <t>CM283</t>
+          <t>CM278</t>
         </is>
       </c>
       <c r="U472" t="inlineStr"/>
       <c r="V472" s="2" t="n">
-        <v>45215</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="473">
@@ -36756,55 +37104,31 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>Consejo para la Transparencia (CPLT)</t>
+          <t>Corporación de Deportes de San Clemente</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>2023/10/11</t>
-        </is>
-      </c>
-      <c r="D473" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E473" t="inlineStr"/>
-      <c r="F473" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="G473" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="H473" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>2023/10/16</t>
+        </is>
+      </c>
+      <c r="D473" t="inlineStr"/>
+      <c r="E473" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="F473" t="inlineStr"/>
+      <c r="G473" t="inlineStr"/>
+      <c r="H473" t="inlineStr"/>
       <c r="I473" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="J473" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="L473" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="J473" t="inlineStr"/>
+      <c r="K473" t="inlineStr"/>
+      <c r="L473" t="inlineStr"/>
       <c r="M473" t="inlineStr"/>
       <c r="N473" t="inlineStr"/>
       <c r="O473" t="inlineStr"/>
@@ -36818,16 +37142,16 @@
         <v>0</v>
       </c>
       <c r="S473" t="n">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="T473" t="inlineStr">
         <is>
-          <t>CT001</t>
+          <t>CM283</t>
         </is>
       </c>
       <c r="U473" t="inlineStr"/>
       <c r="V473" s="2" t="n">
-        <v>45210</v>
+        <v>45215</v>
       </c>
     </row>
     <row r="474">
@@ -36838,23 +37162,55 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>Fundación Integra</t>
+          <t>Consejo para la Transparencia (CPLT)</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>2023/10/26</t>
-        </is>
-      </c>
-      <c r="D474" t="inlineStr"/>
+          <t>2023/10/11</t>
+        </is>
+      </c>
+      <c r="D474" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="E474" t="inlineStr"/>
-      <c r="F474" t="inlineStr"/>
-      <c r="G474" t="inlineStr"/>
-      <c r="H474" t="inlineStr"/>
-      <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
-      <c r="L474" t="inlineStr"/>
+      <c r="F474" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="G474" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H474" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I474" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="J474" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L474" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M474" t="inlineStr"/>
       <c r="N474" t="inlineStr"/>
       <c r="O474" t="inlineStr"/>
@@ -36862,26 +37218,22 @@
         <v>0</v>
       </c>
       <c r="Q474" t="n">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="R474" t="n">
         <v>0</v>
       </c>
       <c r="S474" t="n">
-        <v>138</v>
+        <v>86</v>
       </c>
       <c r="T474" t="inlineStr">
         <is>
-          <t>FU001</t>
-        </is>
-      </c>
-      <c r="U474" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>CT001</t>
+        </is>
+      </c>
+      <c r="U474" t="inlineStr"/>
       <c r="V474" s="2" t="n">
-        <v>45225</v>
+        <v>45210</v>
       </c>
     </row>
     <row r="475">
@@ -36892,12 +37244,12 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>Corporación Regional de Desarrollo Productivo de la Región de Tarapacá</t>
+          <t>Fundación Integra</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>2023/10/05</t>
+          <t>2023/10/26</t>
         </is>
       </c>
       <c r="D475" t="inlineStr"/>
@@ -36908,11 +37260,7 @@
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
       <c r="K475" t="inlineStr"/>
-      <c r="L475" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L475" t="inlineStr"/>
       <c r="M475" t="inlineStr"/>
       <c r="N475" t="inlineStr"/>
       <c r="O475" t="inlineStr"/>
@@ -36920,22 +37268,26 @@
         <v>0</v>
       </c>
       <c r="Q475" t="n">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="R475" t="n">
         <v>0</v>
       </c>
       <c r="S475" t="n">
-        <v>1</v>
+        <v>138</v>
       </c>
       <c r="T475" t="inlineStr">
         <is>
-          <t>FU009</t>
-        </is>
-      </c>
-      <c r="U475" t="inlineStr"/>
+          <t>FU001</t>
+        </is>
+      </c>
+      <c r="U475" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="V475" s="2" t="n">
-        <v>45204</v>
+        <v>45225</v>
       </c>
     </row>
     <row r="476">
@@ -36946,12 +37298,12 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>Asociación de Municipalidades Malleco Norte AMMN</t>
+          <t>Corporación Regional de Desarrollo Productivo de la Región de Tarapacá</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>2023/10/04</t>
+          <t>2023/10/05</t>
         </is>
       </c>
       <c r="D476" t="inlineStr"/>
@@ -36962,7 +37314,11 @@
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
       <c r="K476" t="inlineStr"/>
-      <c r="L476" t="inlineStr"/>
+      <c r="L476" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M476" t="inlineStr"/>
       <c r="N476" t="inlineStr"/>
       <c r="O476" t="inlineStr"/>
@@ -36980,12 +37336,12 @@
       </c>
       <c r="T476" t="inlineStr">
         <is>
-          <t>MA008</t>
+          <t>FU009</t>
         </is>
       </c>
       <c r="U476" t="inlineStr"/>
       <c r="V476" s="2" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
     </row>
     <row r="477">
@@ -36996,12 +37352,12 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>Asociación de Municipalidades de la Región de Valparaíso</t>
+          <t>Asociación de Municipalidades Malleco Norte AMMN</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>2020/11/29</t>
+          <t>2023/10/04</t>
         </is>
       </c>
       <c r="D477" t="inlineStr"/>
@@ -37030,12 +37386,12 @@
       </c>
       <c r="T477" t="inlineStr">
         <is>
-          <t>MA023</t>
+          <t>MA008</t>
         </is>
       </c>
       <c r="U477" t="inlineStr"/>
       <c r="V477" s="2" t="n">
-        <v>44164</v>
+        <v>45203</v>
       </c>
     </row>
     <row r="478">
@@ -37046,12 +37402,12 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>Asociación de Municipalidades de la Provincia de Osorno</t>
+          <t>Asociación de Municipalidades de la Región de Valparaíso</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>2023/11/02</t>
+          <t>2020/11/29</t>
         </is>
       </c>
       <c r="D478" t="inlineStr"/>
@@ -37059,11 +37415,7 @@
       <c r="F478" t="inlineStr"/>
       <c r="G478" t="inlineStr"/>
       <c r="H478" t="inlineStr"/>
-      <c r="I478" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
       <c r="K478" t="inlineStr"/>
       <c r="L478" t="inlineStr"/>
@@ -37084,12 +37436,12 @@
       </c>
       <c r="T478" t="inlineStr">
         <is>
-          <t>MA024</t>
+          <t>MA023</t>
         </is>
       </c>
       <c r="U478" t="inlineStr"/>
       <c r="V478" s="2" t="n">
-        <v>45232</v>
+        <v>44164</v>
       </c>
     </row>
     <row r="479">
@@ -37100,34 +37452,18 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>Asociación de Municipalidades Bio Bio Centro</t>
+          <t>Asociación de Municipalidades de la Provincia de Osorno</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>2023/10/12</t>
-        </is>
-      </c>
-      <c r="D479" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E479" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="F479" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="G479" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>2023/11/02</t>
+        </is>
+      </c>
+      <c r="D479" t="inlineStr"/>
+      <c r="E479" t="inlineStr"/>
+      <c r="F479" t="inlineStr"/>
+      <c r="G479" t="inlineStr"/>
       <c r="H479" t="inlineStr"/>
       <c r="I479" t="inlineStr">
         <is>
@@ -37135,16 +37471,8 @@
         </is>
       </c>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="L479" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K479" t="inlineStr"/>
+      <c r="L479" t="inlineStr"/>
       <c r="M479" t="inlineStr"/>
       <c r="N479" t="inlineStr"/>
       <c r="O479" t="inlineStr"/>
@@ -37158,16 +37486,16 @@
         <v>0</v>
       </c>
       <c r="S479" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="T479" t="inlineStr">
         <is>
-          <t>MA038</t>
+          <t>MA024</t>
         </is>
       </c>
       <c r="U479" t="inlineStr"/>
       <c r="V479" s="2" t="n">
-        <v>45211</v>
+        <v>45232</v>
       </c>
     </row>
     <row r="480">
@@ -37178,27 +37506,51 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>Asociación de Municipalidades del Valle del Itata</t>
+          <t>Asociación de Municipalidades Bio Bio Centro</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>2023/10/10</t>
-        </is>
-      </c>
-      <c r="D480" t="inlineStr"/>
-      <c r="E480" t="inlineStr"/>
-      <c r="F480" t="inlineStr"/>
-      <c r="G480" t="inlineStr"/>
+          <t>2023/11/05</t>
+        </is>
+      </c>
+      <c r="D480" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E480" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="F480" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="G480" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="H480" t="inlineStr"/>
-      <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="K480" t="inlineStr"/>
-      <c r="L480" t="inlineStr"/>
+      <c r="I480" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="J480" t="inlineStr"/>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L480" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M480" t="inlineStr"/>
       <c r="N480" t="inlineStr"/>
       <c r="O480" t="inlineStr"/>
@@ -37212,16 +37564,16 @@
         <v>0</v>
       </c>
       <c r="S480" t="n">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="T480" t="inlineStr">
         <is>
-          <t>MA040</t>
+          <t>MA038</t>
         </is>
       </c>
       <c r="U480" t="inlineStr"/>
       <c r="V480" s="2" t="n">
-        <v>45209</v>
+        <v>45235</v>
       </c>
     </row>
     <row r="481">
@@ -37232,12 +37584,12 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>Asociación de Municipalidades Cordilleranas de la Araucanía</t>
+          <t>Asociación de Municipalidades del Valle del Itata</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/09</t>
         </is>
       </c>
       <c r="D481" t="inlineStr"/>
@@ -37246,7 +37598,11 @@
       <c r="G481" t="inlineStr"/>
       <c r="H481" t="inlineStr"/>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
+      <c r="J481" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="K481" t="inlineStr"/>
       <c r="L481" t="inlineStr"/>
       <c r="M481" t="inlineStr"/>
@@ -37262,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="S481" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T481" t="inlineStr">
         <is>
-          <t>MA058</t>
+          <t>MA040</t>
         </is>
       </c>
       <c r="U481" t="inlineStr"/>
       <c r="V481" s="2" t="n">
-        <v>45212</v>
+        <v>45239</v>
       </c>
     </row>
     <row r="482">
@@ -37282,51 +37638,23 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>Municipalidad de Cabildo</t>
+          <t>Asociación de Municipalidades Cordilleranas de la Araucanía</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>2023/10/11</t>
-        </is>
-      </c>
-      <c r="D482" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E482" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="F482" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="G482" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="H482" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I482" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>2023/10/13</t>
+        </is>
+      </c>
+      <c r="D482" t="inlineStr"/>
+      <c r="E482" t="inlineStr"/>
+      <c r="F482" t="inlineStr"/>
+      <c r="G482" t="inlineStr"/>
+      <c r="H482" t="inlineStr"/>
+      <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
       <c r="K482" t="inlineStr"/>
-      <c r="L482" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L482" t="inlineStr"/>
       <c r="M482" t="inlineStr"/>
       <c r="N482" t="inlineStr"/>
       <c r="O482" t="inlineStr"/>
@@ -37340,16 +37668,16 @@
         <v>0</v>
       </c>
       <c r="S482" t="n">
-        <v>237</v>
+        <v>4</v>
       </c>
       <c r="T482" t="inlineStr">
         <is>
-          <t>MU016</t>
+          <t>MA058</t>
         </is>
       </c>
       <c r="U482" t="inlineStr"/>
       <c r="V482" s="2" t="n">
-        <v>45210</v>
+        <v>45212</v>
       </c>
     </row>
     <row r="483">
@@ -37360,23 +37688,55 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>Municipalidad de Calle Larga</t>
+          <t>Municipalidad de Cabildo</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
-        </is>
-      </c>
-      <c r="D483" t="inlineStr"/>
-      <c r="E483" t="inlineStr"/>
-      <c r="F483" t="inlineStr"/>
-      <c r="G483" t="inlineStr"/>
-      <c r="H483" t="inlineStr"/>
-      <c r="I483" t="inlineStr"/>
+          <t>2023/11/09</t>
+        </is>
+      </c>
+      <c r="D483" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E483" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="F483" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="G483" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H483" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I483" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
-      <c r="L483" t="inlineStr"/>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L483" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M483" t="inlineStr"/>
       <c r="N483" t="inlineStr"/>
       <c r="O483" t="inlineStr"/>
@@ -37390,16 +37750,16 @@
         <v>0</v>
       </c>
       <c r="S483" t="n">
-        <v>110</v>
+        <v>238</v>
       </c>
       <c r="T483" t="inlineStr">
         <is>
-          <t>MU023</t>
+          <t>MU016</t>
         </is>
       </c>
       <c r="U483" t="inlineStr"/>
       <c r="V483" s="2" t="n">
-        <v>45215</v>
+        <v>45239</v>
       </c>
     </row>
     <row r="484">
@@ -37410,59 +37770,23 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>Municipalidad de Chaitén</t>
+          <t>Municipalidad de Calle Larga</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>2023/10/10</t>
-        </is>
-      </c>
-      <c r="D484" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E484" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="F484" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="G484" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="H484" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I484" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="J484" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="L484" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>2023/10/16</t>
+        </is>
+      </c>
+      <c r="D484" t="inlineStr"/>
+      <c r="E484" t="inlineStr"/>
+      <c r="F484" t="inlineStr"/>
+      <c r="G484" t="inlineStr"/>
+      <c r="H484" t="inlineStr"/>
+      <c r="I484" t="inlineStr"/>
+      <c r="J484" t="inlineStr"/>
+      <c r="K484" t="inlineStr"/>
+      <c r="L484" t="inlineStr"/>
       <c r="M484" t="inlineStr"/>
       <c r="N484" t="inlineStr"/>
       <c r="O484" t="inlineStr"/>
@@ -37470,22 +37794,22 @@
         <v>0</v>
       </c>
       <c r="Q484" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R484" t="n">
         <v>0</v>
       </c>
       <c r="S484" t="n">
-        <v>517</v>
+        <v>110</v>
       </c>
       <c r="T484" t="inlineStr">
         <is>
-          <t>MU036</t>
+          <t>MU023</t>
         </is>
       </c>
       <c r="U484" t="inlineStr"/>
       <c r="V484" s="2" t="n">
-        <v>45209</v>
+        <v>45215</v>
       </c>
     </row>
     <row r="485">
@@ -37496,12 +37820,12 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>Municipalidad de El Quisco</t>
+          <t>Municipalidad de Chaitén</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>2023/10/12</t>
+          <t>2023/10/10</t>
         </is>
       </c>
       <c r="D485" t="inlineStr">
@@ -37556,22 +37880,22 @@
         <v>0</v>
       </c>
       <c r="Q485" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R485" t="n">
         <v>0</v>
       </c>
       <c r="S485" t="n">
-        <v>222</v>
+        <v>517</v>
       </c>
       <c r="T485" t="inlineStr">
         <is>
-          <t>MU085</t>
+          <t>MU036</t>
         </is>
       </c>
       <c r="U485" t="inlineStr"/>
       <c r="V485" s="2" t="n">
-        <v>45211</v>
+        <v>45209</v>
       </c>
     </row>
     <row r="486">
@@ -37582,24 +37906,64 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>Municipalidad de Fresia</t>
+          <t>Municipalidad de El Quisco</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>2023/11/01</t>
-        </is>
-      </c>
-      <c r="D486" t="inlineStr"/>
-      <c r="E486" t="inlineStr"/>
-      <c r="F486" t="inlineStr"/>
-      <c r="G486" t="inlineStr"/>
-      <c r="H486" t="inlineStr"/>
-      <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
-      <c r="L486" t="inlineStr"/>
-      <c r="M486" t="inlineStr"/>
+          <t>2023/11/10</t>
+        </is>
+      </c>
+      <c r="D486" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E486" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="F486" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="G486" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H486" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I486" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="J486" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L486" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M486" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N486" t="inlineStr"/>
       <c r="O486" t="inlineStr"/>
       <c r="P486" t="n">
@@ -37612,16 +37976,16 @@
         <v>0</v>
       </c>
       <c r="S486" t="n">
-        <v>435</v>
+        <v>245</v>
       </c>
       <c r="T486" t="inlineStr">
         <is>
-          <t>MU093</t>
+          <t>MU085</t>
         </is>
       </c>
       <c r="U486" t="inlineStr"/>
       <c r="V486" s="2" t="n">
-        <v>45231</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="487">
@@ -37632,12 +37996,12 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>Municipalidad de General Lagos</t>
+          <t>Municipalidad de Fresia</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>2016/07/11</t>
+          <t>2023/11/01</t>
         </is>
       </c>
       <c r="D487" t="inlineStr"/>
@@ -37662,16 +38026,16 @@
         <v>0</v>
       </c>
       <c r="S487" t="n">
-        <v>18</v>
+        <v>435</v>
       </c>
       <c r="T487" t="inlineStr">
         <is>
-          <t>MU098</t>
+          <t>MU093</t>
         </is>
       </c>
       <c r="U487" t="inlineStr"/>
       <c r="V487" s="2" t="n">
-        <v>42562</v>
+        <v>45231</v>
       </c>
     </row>
     <row r="488">
@@ -37682,60 +38046,24 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>Municipalidad de La Cisterna</t>
+          <t>Municipalidad de General Lagos</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>2023/11/03</t>
+          <t>2016/07/11</t>
         </is>
       </c>
       <c r="D488" t="inlineStr"/>
-      <c r="E488" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="F488" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="G488" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="H488" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I488" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="J488" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="K488" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="L488" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M488" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="E488" t="inlineStr"/>
+      <c r="F488" t="inlineStr"/>
+      <c r="G488" t="inlineStr"/>
+      <c r="H488" t="inlineStr"/>
+      <c r="I488" t="inlineStr"/>
+      <c r="J488" t="inlineStr"/>
+      <c r="K488" t="inlineStr"/>
+      <c r="L488" t="inlineStr"/>
+      <c r="M488" t="inlineStr"/>
       <c r="N488" t="inlineStr"/>
       <c r="O488" t="inlineStr"/>
       <c r="P488" t="n">
@@ -37748,16 +38076,16 @@
         <v>0</v>
       </c>
       <c r="S488" t="n">
-        <v>1474</v>
+        <v>18</v>
       </c>
       <c r="T488" t="inlineStr">
         <is>
-          <t>MU117</t>
+          <t>MU098</t>
         </is>
       </c>
       <c r="U488" t="inlineStr"/>
       <c r="V488" s="2" t="n">
-        <v>45233</v>
+        <v>42562</v>
       </c>
     </row>
     <row r="489">
@@ -37768,19 +38096,15 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>Municipalidad de La Florida</t>
+          <t>Municipalidad de La Cisterna</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>2023/11/03</t>
-        </is>
-      </c>
-      <c r="D489" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>2023/11/09</t>
+        </is>
+      </c>
+      <c r="D489" t="inlineStr"/>
       <c r="E489" t="inlineStr">
         <is>
           <t>x</t>
@@ -37829,25 +38153,25 @@
       <c r="N489" t="inlineStr"/>
       <c r="O489" t="inlineStr"/>
       <c r="P489" t="n">
-        <v>153</v>
+        <v>0</v>
       </c>
       <c r="Q489" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R489" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S489" t="n">
-        <v>665</v>
+        <v>1481</v>
       </c>
       <c r="T489" t="inlineStr">
         <is>
-          <t>MU120</t>
+          <t>MU117</t>
         </is>
       </c>
       <c r="U489" t="inlineStr"/>
       <c r="V489" s="2" t="n">
-        <v>45233</v>
+        <v>45239</v>
       </c>
     </row>
     <row r="490">
@@ -37858,46 +38182,86 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>Municipalidad de La Granja</t>
+          <t>Municipalidad de La Florida</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>2021/09/01</t>
-        </is>
-      </c>
-      <c r="D490" t="inlineStr"/>
-      <c r="E490" t="inlineStr"/>
-      <c r="F490" t="inlineStr"/>
-      <c r="G490" t="inlineStr"/>
-      <c r="H490" t="inlineStr"/>
-      <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
-      <c r="L490" t="inlineStr"/>
-      <c r="M490" t="inlineStr"/>
+          <t>2023/11/03</t>
+        </is>
+      </c>
+      <c r="D490" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E490" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="F490" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="G490" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H490" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I490" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="J490" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L490" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M490" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N490" t="inlineStr"/>
       <c r="O490" t="inlineStr"/>
       <c r="P490" t="n">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="Q490" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R490" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S490" t="n">
-        <v>3</v>
+        <v>665</v>
       </c>
       <c r="T490" t="inlineStr">
         <is>
-          <t>MU121</t>
+          <t>MU120</t>
         </is>
       </c>
       <c r="U490" t="inlineStr"/>
       <c r="V490" s="2" t="n">
-        <v>44440</v>
+        <v>45233</v>
       </c>
     </row>
     <row r="491">
@@ -37908,55 +38272,23 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>Municipalidad de La Ligua</t>
+          <t>Municipalidad de La Granja</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>2023/10/28</t>
-        </is>
-      </c>
-      <c r="D491" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E491" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="F491" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="G491" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="H491" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I491" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>2021/09/01</t>
+        </is>
+      </c>
+      <c r="D491" t="inlineStr"/>
+      <c r="E491" t="inlineStr"/>
+      <c r="F491" t="inlineStr"/>
+      <c r="G491" t="inlineStr"/>
+      <c r="H491" t="inlineStr"/>
+      <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="L491" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K491" t="inlineStr"/>
+      <c r="L491" t="inlineStr"/>
       <c r="M491" t="inlineStr"/>
       <c r="N491" t="inlineStr"/>
       <c r="O491" t="inlineStr"/>
@@ -37970,16 +38302,16 @@
         <v>0</v>
       </c>
       <c r="S491" t="n">
-        <v>459</v>
+        <v>3</v>
       </c>
       <c r="T491" t="inlineStr">
         <is>
-          <t>MU123</t>
+          <t>MU121</t>
         </is>
       </c>
       <c r="U491" t="inlineStr"/>
       <c r="V491" s="2" t="n">
-        <v>45227</v>
+        <v>44440</v>
       </c>
     </row>
     <row r="492">
@@ -37990,12 +38322,12 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>Municipalidad de Pelluhue</t>
+          <t>Municipalidad de La Ligua</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/10/28</t>
         </is>
       </c>
       <c r="D492" t="inlineStr">
@@ -38013,18 +38345,22 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G492" t="inlineStr"/>
+      <c r="G492" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="H492" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="I492" t="inlineStr"/>
-      <c r="J492" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="I492" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="J492" t="inlineStr"/>
       <c r="K492" t="inlineStr">
         <is>
           <t>x</t>
@@ -38048,16 +38384,16 @@
         <v>0</v>
       </c>
       <c r="S492" t="n">
-        <v>117</v>
+        <v>459</v>
       </c>
       <c r="T492" t="inlineStr">
         <is>
-          <t>MU207</t>
+          <t>MU123</t>
         </is>
       </c>
       <c r="U492" t="inlineStr"/>
       <c r="V492" s="2" t="n">
-        <v>45215</v>
+        <v>45227</v>
       </c>
     </row>
     <row r="493">
@@ -38068,12 +38404,12 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>Municipalidad de Peumo</t>
+          <t>Municipalidad de Pelluhue</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>2023/10/12</t>
+          <t>2023/11/07</t>
         </is>
       </c>
       <c r="D493" t="inlineStr">
@@ -38091,21 +38427,13 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G493" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G493" t="inlineStr"/>
       <c r="H493" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="I493" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr">
         <is>
           <t>x</t>
@@ -38116,14 +38444,14 @@
           <t>x</t>
         </is>
       </c>
-      <c r="L493" t="inlineStr"/>
+      <c r="L493" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M493" t="inlineStr"/>
       <c r="N493" t="inlineStr"/>
-      <c r="O493" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="O493" t="inlineStr"/>
       <c r="P493" t="n">
         <v>0</v>
       </c>
@@ -38131,19 +38459,19 @@
         <v>0</v>
       </c>
       <c r="R493" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="S493" t="n">
-        <v>1177</v>
+        <v>118</v>
       </c>
       <c r="T493" t="inlineStr">
         <is>
-          <t>MU216</t>
+          <t>MU207</t>
         </is>
       </c>
       <c r="U493" t="inlineStr"/>
       <c r="V493" s="2" t="n">
-        <v>45211</v>
+        <v>45237</v>
       </c>
     </row>
     <row r="494">
@@ -38154,19 +38482,39 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>Municipalidad de Pozo Almonte</t>
+          <t>Municipalidad de Peumo</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
-        </is>
-      </c>
-      <c r="D494" t="inlineStr"/>
-      <c r="E494" t="inlineStr"/>
-      <c r="F494" t="inlineStr"/>
-      <c r="G494" t="inlineStr"/>
-      <c r="H494" t="inlineStr"/>
+          <t>2023/10/12</t>
+        </is>
+      </c>
+      <c r="D494" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E494" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="F494" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="G494" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H494" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="I494" t="inlineStr">
         <is>
           <t>x</t>
@@ -38177,15 +38525,19 @@
           <t>x</t>
         </is>
       </c>
-      <c r="K494" t="inlineStr"/>
-      <c r="L494" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L494" t="inlineStr"/>
       <c r="M494" t="inlineStr"/>
       <c r="N494" t="inlineStr"/>
-      <c r="O494" t="inlineStr"/>
+      <c r="O494" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P494" t="n">
         <v>0</v>
       </c>
@@ -38193,19 +38545,19 @@
         <v>0</v>
       </c>
       <c r="R494" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="S494" t="n">
-        <v>8</v>
+        <v>1177</v>
       </c>
       <c r="T494" t="inlineStr">
         <is>
-          <t>MU226</t>
+          <t>MU216</t>
         </is>
       </c>
       <c r="U494" t="inlineStr"/>
       <c r="V494" s="2" t="n">
-        <v>45212</v>
+        <v>45211</v>
       </c>
     </row>
     <row r="495">
@@ -38216,39 +38568,19 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>Municipalidad de Puerto Octay</t>
+          <t>Municipalidad de Pozo Almonte</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
-        </is>
-      </c>
-      <c r="D495" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E495" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="F495" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="G495" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="H495" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>2023/10/13</t>
+        </is>
+      </c>
+      <c r="D495" t="inlineStr"/>
+      <c r="E495" t="inlineStr"/>
+      <c r="F495" t="inlineStr"/>
+      <c r="G495" t="inlineStr"/>
+      <c r="H495" t="inlineStr"/>
       <c r="I495" t="inlineStr">
         <is>
           <t>x</t>
@@ -38259,11 +38591,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="K495" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K495" t="inlineStr"/>
       <c r="L495" t="inlineStr">
         <is>
           <t>x</t>
@@ -38282,16 +38610,16 @@
         <v>0</v>
       </c>
       <c r="S495" t="n">
-        <v>93</v>
+        <v>8</v>
       </c>
       <c r="T495" t="inlineStr">
         <is>
-          <t>MU235</t>
+          <t>MU226</t>
         </is>
       </c>
       <c r="U495" t="inlineStr"/>
       <c r="V495" s="2" t="n">
-        <v>45215</v>
+        <v>45212</v>
       </c>
     </row>
     <row r="496">
@@ -38302,12 +38630,12 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>Municipalidad de Puyehue</t>
+          <t>Municipalidad de Puerto Octay</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>2023/10/04</t>
+          <t>2023/10/16</t>
         </is>
       </c>
       <c r="D496" t="inlineStr">
@@ -38340,18 +38668,26 @@
           <t>x</t>
         </is>
       </c>
-      <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
-      <c r="L496" t="inlineStr"/>
+      <c r="J496" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L496" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M496" t="inlineStr"/>
       <c r="N496" t="inlineStr"/>
-      <c r="O496" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="O496" t="inlineStr"/>
       <c r="P496" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q496" t="n">
         <v>0</v>
@@ -38360,16 +38696,16 @@
         <v>0</v>
       </c>
       <c r="S496" t="n">
-        <v>462</v>
+        <v>93</v>
       </c>
       <c r="T496" t="inlineStr">
         <is>
-          <t>MU245</t>
+          <t>MU235</t>
         </is>
       </c>
       <c r="U496" t="inlineStr"/>
       <c r="V496" s="2" t="n">
-        <v>45203</v>
+        <v>45215</v>
       </c>
     </row>
     <row r="497">
@@ -38380,12 +38716,12 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>Municipalidad de Quinta Normal</t>
+          <t>Municipalidad de Puyehue</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>2023/09/15</t>
+          <t>2023/11/06</t>
         </is>
       </c>
       <c r="D497" t="inlineStr">
@@ -38403,17 +38739,33 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G497" t="inlineStr"/>
-      <c r="H497" t="inlineStr"/>
-      <c r="I497" t="inlineStr"/>
+      <c r="G497" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H497" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I497" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="J497" t="inlineStr"/>
       <c r="K497" t="inlineStr"/>
       <c r="L497" t="inlineStr"/>
       <c r="M497" t="inlineStr"/>
       <c r="N497" t="inlineStr"/>
-      <c r="O497" t="inlineStr"/>
+      <c r="O497" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P497" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q497" t="n">
         <v>0</v>
@@ -38422,16 +38774,16 @@
         <v>0</v>
       </c>
       <c r="S497" t="n">
-        <v>774</v>
+        <v>462</v>
       </c>
       <c r="T497" t="inlineStr">
         <is>
-          <t>MU257</t>
+          <t>MU245</t>
         </is>
       </c>
       <c r="U497" t="inlineStr"/>
       <c r="V497" s="2" t="n">
-        <v>45184</v>
+        <v>45236</v>
       </c>
     </row>
     <row r="498">
@@ -38442,17 +38794,29 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>Municipalidad de Requínoa</t>
+          <t>Municipalidad de Quinta Normal</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
-        </is>
-      </c>
-      <c r="D498" t="inlineStr"/>
-      <c r="E498" t="inlineStr"/>
-      <c r="F498" t="inlineStr"/>
+          <t>2023/09/15</t>
+        </is>
+      </c>
+      <c r="D498" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E498" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="F498" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="G498" t="inlineStr"/>
       <c r="H498" t="inlineStr"/>
       <c r="I498" t="inlineStr"/>
@@ -38463,7 +38827,7 @@
       <c r="N498" t="inlineStr"/>
       <c r="O498" t="inlineStr"/>
       <c r="P498" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q498" t="n">
         <v>0</v>
@@ -38472,16 +38836,16 @@
         <v>0</v>
       </c>
       <c r="S498" t="n">
-        <v>24</v>
+        <v>774</v>
       </c>
       <c r="T498" t="inlineStr">
         <is>
-          <t>MU267</t>
+          <t>MU257</t>
         </is>
       </c>
       <c r="U498" t="inlineStr"/>
       <c r="V498" s="2" t="n">
-        <v>45215</v>
+        <v>45184</v>
       </c>
     </row>
     <row r="499">
@@ -38492,7 +38856,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>Municipalidad de San Miguel</t>
+          <t>Municipalidad de Requínoa</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
@@ -38500,51 +38864,15 @@
           <t>2023/10/16</t>
         </is>
       </c>
-      <c r="D499" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E499" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="F499" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="G499" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="H499" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I499" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="J499" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="K499" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="L499" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="D499" t="inlineStr"/>
+      <c r="E499" t="inlineStr"/>
+      <c r="F499" t="inlineStr"/>
+      <c r="G499" t="inlineStr"/>
+      <c r="H499" t="inlineStr"/>
+      <c r="I499" t="inlineStr"/>
+      <c r="J499" t="inlineStr"/>
+      <c r="K499" t="inlineStr"/>
+      <c r="L499" t="inlineStr"/>
       <c r="M499" t="inlineStr"/>
       <c r="N499" t="inlineStr"/>
       <c r="O499" t="inlineStr"/>
@@ -38555,14 +38883,14 @@
         <v>0</v>
       </c>
       <c r="R499" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S499" t="n">
-        <v>2307</v>
+        <v>24</v>
       </c>
       <c r="T499" t="inlineStr">
         <is>
-          <t>MU294</t>
+          <t>MU267</t>
         </is>
       </c>
       <c r="U499" t="inlineStr"/>
@@ -38578,23 +38906,59 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>Municipalidad de Taltal</t>
+          <t>Municipalidad de San Miguel</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>2023/10/04</t>
-        </is>
-      </c>
-      <c r="D500" t="inlineStr"/>
-      <c r="E500" t="inlineStr"/>
-      <c r="F500" t="inlineStr"/>
-      <c r="G500" t="inlineStr"/>
-      <c r="H500" t="inlineStr"/>
-      <c r="I500" t="inlineStr"/>
-      <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
-      <c r="L500" t="inlineStr"/>
+          <t>2023/10/16</t>
+        </is>
+      </c>
+      <c r="D500" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E500" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="F500" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="G500" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H500" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I500" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="J500" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L500" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M500" t="inlineStr"/>
       <c r="N500" t="inlineStr"/>
       <c r="O500" t="inlineStr"/>
@@ -38605,19 +38969,19 @@
         <v>0</v>
       </c>
       <c r="R500" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S500" t="n">
-        <v>4</v>
+        <v>2307</v>
       </c>
       <c r="T500" t="inlineStr">
         <is>
-          <t>MU314</t>
+          <t>MU294</t>
         </is>
       </c>
       <c r="U500" t="inlineStr"/>
       <c r="V500" s="2" t="n">
-        <v>45203</v>
+        <v>45215</v>
       </c>
     </row>
     <row r="501">
@@ -38628,47 +38992,23 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>Municipalidad de Villa Alegre</t>
+          <t>Municipalidad de Taltal</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/10/04</t>
         </is>
       </c>
       <c r="D501" t="inlineStr"/>
       <c r="E501" t="inlineStr"/>
-      <c r="F501" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="F501" t="inlineStr"/>
       <c r="G501" t="inlineStr"/>
-      <c r="H501" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I501" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="J501" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="K501" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="L501" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="H501" t="inlineStr"/>
+      <c r="I501" t="inlineStr"/>
+      <c r="J501" t="inlineStr"/>
+      <c r="K501" t="inlineStr"/>
+      <c r="L501" t="inlineStr"/>
       <c r="M501" t="inlineStr"/>
       <c r="N501" t="inlineStr"/>
       <c r="O501" t="inlineStr"/>
@@ -38682,16 +39022,16 @@
         <v>0</v>
       </c>
       <c r="S501" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="T501" t="inlineStr">
         <is>
-          <t>MU337</t>
+          <t>MU314</t>
         </is>
       </c>
       <c r="U501" t="inlineStr"/>
       <c r="V501" s="2" t="n">
-        <v>45212</v>
+        <v>45203</v>
       </c>
     </row>
     <row r="502">
@@ -38702,22 +39042,42 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>Municipalidad de Vitacura</t>
+          <t>Municipalidad de Villa Alegre</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>2023/09/20</t>
+          <t>2023/10/13</t>
         </is>
       </c>
       <c r="D502" t="inlineStr"/>
       <c r="E502" t="inlineStr"/>
-      <c r="F502" t="inlineStr"/>
+      <c r="F502" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="G502" t="inlineStr"/>
-      <c r="H502" t="inlineStr"/>
-      <c r="I502" t="inlineStr"/>
-      <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="H502" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I502" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="J502" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L502" t="inlineStr">
         <is>
           <t>x</t>
@@ -38736,16 +39096,16 @@
         <v>0</v>
       </c>
       <c r="S502" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="T502" t="inlineStr">
         <is>
-          <t>MU341</t>
+          <t>MU337</t>
         </is>
       </c>
       <c r="U502" t="inlineStr"/>
       <c r="V502" s="2" t="n">
-        <v>45189</v>
+        <v>45212</v>
       </c>
     </row>
     <row r="503">
@@ -38756,12 +39116,12 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>Universidad de Valparaíso</t>
+          <t>Municipalidad de Vitacura</t>
         </is>
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>2023/10/12</t>
+          <t>2023/09/20</t>
         </is>
       </c>
       <c r="D503" t="inlineStr"/>
@@ -38772,7 +39132,11 @@
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
       <c r="K503" t="inlineStr"/>
-      <c r="L503" t="inlineStr"/>
+      <c r="L503" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M503" t="inlineStr"/>
       <c r="N503" t="inlineStr"/>
       <c r="O503" t="inlineStr"/>
@@ -38786,16 +39150,16 @@
         <v>0</v>
       </c>
       <c r="S503" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="T503" t="inlineStr">
         <is>
-          <t>UN007</t>
+          <t>MU341</t>
         </is>
       </c>
       <c r="U503" t="inlineStr"/>
       <c r="V503" s="2" t="n">
-        <v>45211</v>
+        <v>45189</v>
       </c>
     </row>
     <row r="504">
@@ -38806,42 +39170,22 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>Universidad de Aysén</t>
+          <t>Universidad de Valparaíso</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
-        </is>
-      </c>
-      <c r="D504" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>2023/10/12</t>
+        </is>
+      </c>
+      <c r="D504" t="inlineStr"/>
       <c r="E504" t="inlineStr"/>
       <c r="F504" t="inlineStr"/>
-      <c r="G504" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="H504" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I504" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G504" t="inlineStr"/>
+      <c r="H504" t="inlineStr"/>
+      <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K504" t="inlineStr"/>
       <c r="L504" t="inlineStr"/>
       <c r="M504" t="inlineStr"/>
       <c r="N504" t="inlineStr"/>
@@ -38856,16 +39200,16 @@
         <v>0</v>
       </c>
       <c r="S504" t="n">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="T504" t="inlineStr">
         <is>
-          <t>UN017</t>
+          <t>UN007</t>
         </is>
       </c>
       <c r="U504" t="inlineStr"/>
       <c r="V504" s="2" t="n">
-        <v>45212</v>
+        <v>45211</v>
       </c>
     </row>
     <row r="505">
@@ -38876,12 +39220,12 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>Universidad de OHiggins</t>
+          <t>Universidad de Aysén</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>2023/10/17</t>
+          <t>2023/10/13</t>
         </is>
       </c>
       <c r="D505" t="inlineStr">
@@ -38890,37 +39234,29 @@
         </is>
       </c>
       <c r="E505" t="inlineStr"/>
-      <c r="F505" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="F505" t="inlineStr"/>
       <c r="G505" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="H505" t="inlineStr"/>
+      <c r="H505" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="I505" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="J505" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="J505" t="inlineStr"/>
       <c r="K505" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="L505" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L505" t="inlineStr"/>
       <c r="M505" t="inlineStr"/>
       <c r="N505" t="inlineStr"/>
       <c r="O505" t="inlineStr"/>
@@ -38931,18 +39267,96 @@
         <v>0</v>
       </c>
       <c r="R505" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S505" t="n">
-        <v>170</v>
+        <v>97</v>
       </c>
       <c r="T505" t="inlineStr">
         <is>
-          <t>UN018</t>
+          <t>UN017</t>
         </is>
       </c>
       <c r="U505" t="inlineStr"/>
       <c r="V505" s="2" t="n">
+        <v>45212</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>TA_Licitaciones</t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>Universidad de OHiggins</t>
+        </is>
+      </c>
+      <c r="C506" t="inlineStr">
+        <is>
+          <t>2023/10/17</t>
+        </is>
+      </c>
+      <c r="D506" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E506" t="inlineStr"/>
+      <c r="F506" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="G506" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H506" t="inlineStr"/>
+      <c r="I506" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="J506" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L506" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M506" t="inlineStr"/>
+      <c r="N506" t="inlineStr"/>
+      <c r="O506" t="inlineStr"/>
+      <c r="P506" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q506" t="n">
+        <v>0</v>
+      </c>
+      <c r="R506" t="n">
+        <v>3</v>
+      </c>
+      <c r="S506" t="n">
+        <v>170</v>
+      </c>
+      <c r="T506" t="inlineStr">
+        <is>
+          <t>UN018</t>
+        </is>
+      </c>
+      <c r="U506" t="inlineStr"/>
+      <c r="V506" s="2" t="n">
         <v>45216</v>
       </c>
     </row>

--- a/consolidado5.xlsx
+++ b/consolidado5.xlsx
@@ -1659,7 +1659,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2023/11/16</t>
+          <t>2023/11/20</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1724,7 +1724,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>194889</v>
+        <v>194928</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
       </c>
       <c r="U20" t="inlineStr"/>
       <c r="V20" s="2" t="n">
-        <v>45246</v>
+        <v>45250</v>
       </c>
     </row>
     <row r="21">
@@ -1749,7 +1749,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2023/10/18</t>
+          <t>2023/11/22</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
@@ -1781,7 +1781,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="n">
@@ -1794,7 +1798,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>2184</v>
+        <v>2376</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -1803,7 +1807,7 @@
       </c>
       <c r="U21" t="inlineStr"/>
       <c r="V21" s="2" t="n">
-        <v>45217</v>
+        <v>45252</v>
       </c>
     </row>
     <row r="22">
@@ -2445,7 +2449,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2023/11/17</t>
+          <t>2023/11/23</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -2510,7 +2514,7 @@
         <v>34</v>
       </c>
       <c r="S31" t="n">
-        <v>586605</v>
+        <v>588990</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -2519,7 +2523,7 @@
       </c>
       <c r="U31" t="inlineStr"/>
       <c r="V31" s="2" t="n">
-        <v>45247</v>
+        <v>45253</v>
       </c>
     </row>
     <row r="32">
@@ -4445,7 +4449,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>2023/10/17</t>
+          <t>2023/11/20</t>
         </is>
       </c>
       <c r="D57" t="inlineStr"/>
@@ -4479,7 +4483,7 @@
       </c>
       <c r="U57" t="inlineStr"/>
       <c r="V57" s="2" t="n">
-        <v>45216</v>
+        <v>45250</v>
       </c>
     </row>
     <row r="58">
@@ -4545,7 +4549,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>2022/06/28</t>
+          <t>2023/11/21</t>
         </is>
       </c>
       <c r="D59" t="inlineStr"/>
@@ -4579,7 +4583,7 @@
       </c>
       <c r="U59" t="inlineStr"/>
       <c r="V59" s="2" t="n">
-        <v>44740</v>
+        <v>45251</v>
       </c>
     </row>
     <row r="60">
@@ -4731,7 +4735,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>2023/10/14</t>
+          <t>2023/11/19</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -4777,7 +4781,7 @@
       </c>
       <c r="U62" t="inlineStr"/>
       <c r="V62" s="2" t="n">
-        <v>45213</v>
+        <v>45249</v>
       </c>
     </row>
     <row r="63">
@@ -6765,7 +6769,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>2023/11/17</t>
+          <t>2023/11/23</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -6834,7 +6838,7 @@
         <v>509</v>
       </c>
       <c r="S89" t="n">
-        <v>374763</v>
+        <v>377550</v>
       </c>
       <c r="T89" t="inlineStr">
         <is>
@@ -6843,7 +6847,7 @@
       </c>
       <c r="U89" t="inlineStr"/>
       <c r="V89" s="2" t="n">
-        <v>45247</v>
+        <v>45253</v>
       </c>
     </row>
     <row r="90">
@@ -6859,7 +6863,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>2023/11/15</t>
+          <t>2023/11/22</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -6907,8 +6911,16 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="inlineStr"/>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O90" t="inlineStr"/>
       <c r="P90" t="n">
         <v>0</v>
@@ -6920,7 +6932,7 @@
         <v>1</v>
       </c>
       <c r="S90" t="n">
-        <v>18740</v>
+        <v>19405</v>
       </c>
       <c r="T90" t="inlineStr">
         <is>
@@ -6933,7 +6945,7 @@
         </is>
       </c>
       <c r="V90" s="2" t="n">
-        <v>45245</v>
+        <v>45252</v>
       </c>
     </row>
     <row r="91">
@@ -7871,7 +7883,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>2023/11/14</t>
+          <t>2023/11/20</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -7953,7 +7965,7 @@
       </c>
       <c r="U102" t="inlineStr"/>
       <c r="V102" s="2" t="n">
-        <v>45244</v>
+        <v>45250</v>
       </c>
     </row>
     <row r="103">
@@ -8391,7 +8403,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>2023/10/11</t>
+          <t>2023/11/20</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -8439,7 +8451,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N108" t="inlineStr"/>
       <c r="O108" t="inlineStr"/>
       <c r="P108" t="n">
@@ -8452,7 +8468,7 @@
         <v>0</v>
       </c>
       <c r="S108" t="n">
-        <v>6410</v>
+        <v>6420</v>
       </c>
       <c r="T108" t="inlineStr">
         <is>
@@ -8461,7 +8477,7 @@
       </c>
       <c r="U108" t="inlineStr"/>
       <c r="V108" s="2" t="n">
-        <v>45210</v>
+        <v>45250</v>
       </c>
     </row>
     <row r="109">
@@ -9279,7 +9295,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>2023/11/13</t>
+          <t>2023/11/21</t>
         </is>
       </c>
       <c r="D118" t="inlineStr"/>
@@ -9313,7 +9329,7 @@
       </c>
       <c r="U118" t="inlineStr"/>
       <c r="V118" s="2" t="n">
-        <v>45243</v>
+        <v>45251</v>
       </c>
     </row>
     <row r="119">
@@ -9947,7 +9963,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>2023/11/15</t>
+          <t>2023/11/22</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -10016,7 +10032,7 @@
         <v>0</v>
       </c>
       <c r="S126" t="n">
-        <v>37934</v>
+        <v>38642</v>
       </c>
       <c r="T126" t="inlineStr">
         <is>
@@ -10025,7 +10041,7 @@
       </c>
       <c r="U126" t="inlineStr"/>
       <c r="V126" s="2" t="n">
-        <v>45245</v>
+        <v>45252</v>
       </c>
     </row>
     <row r="127">
@@ -10041,7 +10057,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/20</t>
         </is>
       </c>
       <c r="D127" t="inlineStr"/>
@@ -10075,7 +10091,7 @@
       </c>
       <c r="U127" t="inlineStr"/>
       <c r="V127" s="2" t="n">
-        <v>45215</v>
+        <v>45250</v>
       </c>
     </row>
     <row r="128">
@@ -11261,7 +11277,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>2023/11/08</t>
+          <t>2023/11/20</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -11326,7 +11342,7 @@
         <v>0</v>
       </c>
       <c r="S141" t="n">
-        <v>33977</v>
+        <v>33985</v>
       </c>
       <c r="T141" t="inlineStr">
         <is>
@@ -11335,7 +11351,7 @@
       </c>
       <c r="U141" t="inlineStr"/>
       <c r="V141" s="2" t="n">
-        <v>45238</v>
+        <v>45250</v>
       </c>
     </row>
     <row r="142">
@@ -12035,7 +12051,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>2023/11/13</t>
+          <t>2023/11/20</t>
         </is>
       </c>
       <c r="D150" t="inlineStr"/>
@@ -12069,7 +12085,7 @@
       </c>
       <c r="U150" t="inlineStr"/>
       <c r="V150" s="2" t="n">
-        <v>45243</v>
+        <v>45250</v>
       </c>
     </row>
     <row r="151">
@@ -13235,7 +13251,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>2023/10/25</t>
+          <t>2023/11/24</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -13293,7 +13309,7 @@
       </c>
       <c r="U164" t="inlineStr"/>
       <c r="V164" s="2" t="n">
-        <v>45224</v>
+        <v>45254</v>
       </c>
     </row>
     <row r="165">
@@ -13309,7 +13325,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>2023/10/29</t>
+          <t>2023/11/22</t>
         </is>
       </c>
       <c r="D165" t="inlineStr"/>
@@ -13351,7 +13367,7 @@
       </c>
       <c r="U165" t="inlineStr"/>
       <c r="V165" s="2" t="n">
-        <v>45228</v>
+        <v>45252</v>
       </c>
     </row>
     <row r="166">
@@ -13625,7 +13641,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/22</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -13673,11 +13689,15 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N169" t="inlineStr"/>
       <c r="O169" t="inlineStr"/>
       <c r="P169" t="n">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="Q169" t="n">
         <v>229</v>
@@ -13686,7 +13706,7 @@
         <v>492</v>
       </c>
       <c r="S169" t="n">
-        <v>46661</v>
+        <v>47738</v>
       </c>
       <c r="T169" t="inlineStr">
         <is>
@@ -13695,7 +13715,7 @@
       </c>
       <c r="U169" t="inlineStr"/>
       <c r="V169" s="2" t="n">
-        <v>45215</v>
+        <v>45252</v>
       </c>
     </row>
     <row r="170">
@@ -14035,7 +14055,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>2023/11/11</t>
+          <t>2023/11/22</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -14083,7 +14103,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N174" t="inlineStr"/>
       <c r="O174" t="inlineStr"/>
       <c r="P174" t="n">
@@ -14096,7 +14120,7 @@
         <v>0</v>
       </c>
       <c r="S174" t="n">
-        <v>9316</v>
+        <v>9395</v>
       </c>
       <c r="T174" t="inlineStr">
         <is>
@@ -14105,7 +14129,7 @@
       </c>
       <c r="U174" t="inlineStr"/>
       <c r="V174" s="2" t="n">
-        <v>45241</v>
+        <v>45252</v>
       </c>
     </row>
     <row r="175">
@@ -15161,20 +15185,56 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>2023/10/18</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr"/>
-      <c r="E187" t="inlineStr"/>
+          <t>2023/11/20</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F187" t="inlineStr"/>
       <c r="G187" t="inlineStr"/>
-      <c r="H187" t="inlineStr"/>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="inlineStr"/>
-      <c r="N187" t="inlineStr"/>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M187" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N187" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O187" t="inlineStr"/>
       <c r="P187" t="n">
         <v>5</v>
@@ -15186,7 +15246,7 @@
         <v>0</v>
       </c>
       <c r="S187" t="n">
-        <v>23376</v>
+        <v>27291</v>
       </c>
       <c r="T187" t="inlineStr">
         <is>
@@ -15195,7 +15255,7 @@
       </c>
       <c r="U187" t="inlineStr"/>
       <c r="V187" s="2" t="n">
-        <v>45217</v>
+        <v>45250</v>
       </c>
     </row>
     <row r="188">
@@ -16543,7 +16603,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>2023/11/15</t>
+          <t>2023/11/23</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -16613,7 +16673,7 @@
         </is>
       </c>
       <c r="V204" s="2" t="n">
-        <v>45245</v>
+        <v>45253</v>
       </c>
     </row>
     <row r="205">
@@ -17513,7 +17573,7 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>2023/09/05</t>
+          <t>2023/11/21</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -17551,8 +17611,16 @@
           <t>x</t>
         </is>
       </c>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M215" t="inlineStr"/>
       <c r="N215" t="inlineStr"/>
       <c r="O215" t="inlineStr"/>
@@ -17566,7 +17634,7 @@
         <v>0</v>
       </c>
       <c r="S215" t="n">
-        <v>1106</v>
+        <v>1224</v>
       </c>
       <c r="T215" t="inlineStr">
         <is>
@@ -17575,7 +17643,7 @@
       </c>
       <c r="U215" t="inlineStr"/>
       <c r="V215" s="2" t="n">
-        <v>45174</v>
+        <v>45251</v>
       </c>
     </row>
     <row r="216">
@@ -17591,7 +17659,7 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>2023/09/12</t>
+          <t>2023/11/22</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -17639,7 +17707,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="M216" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N216" t="inlineStr"/>
       <c r="O216" t="inlineStr">
         <is>
@@ -17656,7 +17728,7 @@
         <v>49</v>
       </c>
       <c r="S216" t="n">
-        <v>9043</v>
+        <v>9292</v>
       </c>
       <c r="T216" t="inlineStr">
         <is>
@@ -17665,7 +17737,7 @@
       </c>
       <c r="U216" t="inlineStr"/>
       <c r="V216" s="2" t="n">
-        <v>45181</v>
+        <v>45252</v>
       </c>
     </row>
     <row r="217">
@@ -18197,7 +18269,7 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>2023/10/17</t>
+          <t>2023/11/22</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -18245,7 +18317,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="M223" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N223" t="inlineStr"/>
       <c r="O223" t="inlineStr"/>
       <c r="P223" t="n">
@@ -18258,7 +18334,7 @@
         <v>0</v>
       </c>
       <c r="S223" t="n">
-        <v>17644</v>
+        <v>17892</v>
       </c>
       <c r="T223" t="inlineStr">
         <is>
@@ -18267,7 +18343,7 @@
       </c>
       <c r="U223" t="inlineStr"/>
       <c r="V223" s="2" t="n">
-        <v>45216</v>
+        <v>45252</v>
       </c>
     </row>
     <row r="224">
@@ -19009,7 +19085,7 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/19</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -19057,7 +19133,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="M233" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N233" t="inlineStr"/>
       <c r="O233" t="inlineStr"/>
       <c r="P233" t="n">
@@ -19070,7 +19150,7 @@
         <v>0</v>
       </c>
       <c r="S233" t="n">
-        <v>12711</v>
+        <v>12824</v>
       </c>
       <c r="T233" t="inlineStr">
         <is>
@@ -19079,7 +19159,7 @@
       </c>
       <c r="U233" t="inlineStr"/>
       <c r="V233" s="2" t="n">
-        <v>45212</v>
+        <v>45249</v>
       </c>
     </row>
     <row r="234">
@@ -20413,7 +20493,7 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>2023/11/15</t>
+          <t>2023/11/21</t>
         </is>
       </c>
       <c r="D249" t="inlineStr"/>
@@ -20451,7 +20531,7 @@
         </is>
       </c>
       <c r="V249" s="2" t="n">
-        <v>45245</v>
+        <v>45251</v>
       </c>
     </row>
     <row r="250">
@@ -21077,7 +21157,7 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>2023/11/09</t>
+          <t>2023/11/21</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
@@ -21142,7 +21222,7 @@
         <v>208</v>
       </c>
       <c r="S257" t="n">
-        <v>168856</v>
+        <v>169462</v>
       </c>
       <c r="T257" t="inlineStr">
         <is>
@@ -21151,7 +21231,7 @@
       </c>
       <c r="U257" t="inlineStr"/>
       <c r="V257" s="2" t="n">
-        <v>45239</v>
+        <v>45251</v>
       </c>
     </row>
     <row r="258">
@@ -22289,7 +22369,7 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>2023/11/09</t>
+          <t>2023/11/24</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
@@ -22354,7 +22434,7 @@
         <v>127</v>
       </c>
       <c r="S271" t="n">
-        <v>31165</v>
+        <v>31676</v>
       </c>
       <c r="T271" t="inlineStr">
         <is>
@@ -22363,7 +22443,7 @@
       </c>
       <c r="U271" t="inlineStr"/>
       <c r="V271" s="2" t="n">
-        <v>45239</v>
+        <v>45254</v>
       </c>
     </row>
     <row r="272">
@@ -22555,7 +22635,7 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>2023/10/30</t>
+          <t>2023/11/22</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
@@ -22603,7 +22683,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M274" t="inlineStr"/>
+      <c r="M274" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N274" t="inlineStr"/>
       <c r="O274" t="inlineStr"/>
       <c r="P274" t="n">
@@ -22616,7 +22700,7 @@
         <v>0</v>
       </c>
       <c r="S274" t="n">
-        <v>14039</v>
+        <v>14145</v>
       </c>
       <c r="T274" t="inlineStr">
         <is>
@@ -22625,7 +22709,7 @@
       </c>
       <c r="U274" t="inlineStr"/>
       <c r="V274" s="2" t="n">
-        <v>45229</v>
+        <v>45252</v>
       </c>
     </row>
     <row r="275">
@@ -23423,7 +23507,7 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>2023/11/17</t>
+          <t>2023/11/24</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
@@ -23496,7 +23580,7 @@
         <v>0</v>
       </c>
       <c r="S284" t="n">
-        <v>17059</v>
+        <v>17230</v>
       </c>
       <c r="T284" t="inlineStr">
         <is>
@@ -23505,7 +23589,7 @@
       </c>
       <c r="U284" t="inlineStr"/>
       <c r="V284" s="2" t="n">
-        <v>45247</v>
+        <v>45254</v>
       </c>
     </row>
     <row r="285">
@@ -24353,7 +24437,7 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/20</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
@@ -24419,7 +24503,7 @@
       </c>
       <c r="U295" t="inlineStr"/>
       <c r="V295" s="2" t="n">
-        <v>45215</v>
+        <v>45250</v>
       </c>
     </row>
     <row r="296">
@@ -24615,7 +24699,7 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>2023/10/19</t>
+          <t>2023/11/23</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
@@ -24663,7 +24747,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M298" t="inlineStr"/>
+      <c r="M298" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N298" t="inlineStr"/>
       <c r="O298" t="inlineStr"/>
       <c r="P298" t="n">
@@ -24676,7 +24764,7 @@
         <v>0</v>
       </c>
       <c r="S298" t="n">
-        <v>2174</v>
+        <v>2399</v>
       </c>
       <c r="T298" t="inlineStr">
         <is>
@@ -24685,7 +24773,7 @@
       </c>
       <c r="U298" t="inlineStr"/>
       <c r="V298" s="2" t="n">
-        <v>45218</v>
+        <v>45253</v>
       </c>
     </row>
     <row r="299">
@@ -24791,7 +24879,7 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>2023/11/02</t>
+          <t>2023/11/20</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
@@ -24856,7 +24944,7 @@
         <v>35</v>
       </c>
       <c r="S300" t="n">
-        <v>57363</v>
+        <v>57835</v>
       </c>
       <c r="T300" t="inlineStr">
         <is>
@@ -24865,7 +24953,7 @@
       </c>
       <c r="U300" t="inlineStr"/>
       <c r="V300" s="2" t="n">
-        <v>45232</v>
+        <v>45250</v>
       </c>
     </row>
     <row r="301">
@@ -25255,7 +25343,7 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>2023/09/20</t>
+          <t>2023/11/21</t>
         </is>
       </c>
       <c r="D306" t="inlineStr"/>
@@ -25286,8 +25374,16 @@
           <t>x</t>
         </is>
       </c>
-      <c r="L306" t="inlineStr"/>
-      <c r="M306" t="inlineStr"/>
+      <c r="L306" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M306" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N306" t="inlineStr"/>
       <c r="O306" t="inlineStr"/>
       <c r="P306" t="n">
@@ -25300,7 +25396,7 @@
         <v>0</v>
       </c>
       <c r="S306" t="n">
-        <v>6659</v>
+        <v>6684</v>
       </c>
       <c r="T306" t="inlineStr">
         <is>
@@ -25309,7 +25405,7 @@
       </c>
       <c r="U306" t="inlineStr"/>
       <c r="V306" s="2" t="n">
-        <v>45189</v>
+        <v>45251</v>
       </c>
     </row>
     <row r="307">
@@ -25415,7 +25511,7 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>2023/11/14</t>
+          <t>2023/11/21</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
@@ -25480,7 +25576,7 @@
         <v>0</v>
       </c>
       <c r="S308" t="n">
-        <v>15087</v>
+        <v>15146</v>
       </c>
       <c r="T308" t="inlineStr">
         <is>
@@ -25489,7 +25585,7 @@
       </c>
       <c r="U308" t="inlineStr"/>
       <c r="V308" s="2" t="n">
-        <v>45244</v>
+        <v>45251</v>
       </c>
     </row>
     <row r="309">
@@ -25829,7 +25925,7 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>2023/11/07</t>
+          <t>2023/11/23</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
@@ -25894,7 +25990,7 @@
         <v>145</v>
       </c>
       <c r="S313" t="n">
-        <v>70652</v>
+        <v>70675</v>
       </c>
       <c r="T313" t="inlineStr">
         <is>
@@ -25903,7 +25999,7 @@
       </c>
       <c r="U313" t="inlineStr"/>
       <c r="V313" s="2" t="n">
-        <v>45237</v>
+        <v>45253</v>
       </c>
     </row>
     <row r="314">
@@ -27003,7 +27099,7 @@
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>2023/10/18</t>
+          <t>2023/11/21</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
@@ -27051,7 +27147,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M326" t="inlineStr"/>
+      <c r="M326" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N326" t="inlineStr"/>
       <c r="O326" t="inlineStr"/>
       <c r="P326" t="n">
@@ -27064,7 +27164,7 @@
         <v>11</v>
       </c>
       <c r="S326" t="n">
-        <v>22668</v>
+        <v>22751</v>
       </c>
       <c r="T326" t="inlineStr">
         <is>
@@ -27073,7 +27173,7 @@
       </c>
       <c r="U326" t="inlineStr"/>
       <c r="V326" s="2" t="n">
-        <v>45217</v>
+        <v>45251</v>
       </c>
     </row>
     <row r="327">
@@ -27261,7 +27361,7 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>2023/11/15</t>
+          <t>2023/11/20</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
@@ -27326,7 +27426,7 @@
         <v>216</v>
       </c>
       <c r="S329" t="n">
-        <v>180201</v>
+        <v>180611</v>
       </c>
       <c r="T329" t="inlineStr">
         <is>
@@ -27335,7 +27435,7 @@
       </c>
       <c r="U329" t="inlineStr"/>
       <c r="V329" s="2" t="n">
-        <v>45245</v>
+        <v>45250</v>
       </c>
     </row>
     <row r="330">
@@ -27621,7 +27721,7 @@
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>2023/11/09</t>
+          <t>2023/11/23</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
@@ -27690,7 +27790,7 @@
         <v>46</v>
       </c>
       <c r="S333" t="n">
-        <v>15762</v>
+        <v>15901</v>
       </c>
       <c r="T333" t="inlineStr">
         <is>
@@ -27699,7 +27799,7 @@
       </c>
       <c r="U333" t="inlineStr"/>
       <c r="V333" s="2" t="n">
-        <v>45239</v>
+        <v>45253</v>
       </c>
     </row>
     <row r="334">
@@ -27917,7 +28017,7 @@
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>2023/11/02</t>
+          <t>2023/11/21</t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
@@ -27970,7 +28070,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N337" t="inlineStr"/>
+      <c r="N337" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O337" t="inlineStr"/>
       <c r="P337" t="n">
         <v>0</v>
@@ -27982,7 +28086,7 @@
         <v>1</v>
       </c>
       <c r="S337" t="n">
-        <v>70422</v>
+        <v>70615</v>
       </c>
       <c r="T337" t="inlineStr">
         <is>
@@ -27991,7 +28095,7 @@
       </c>
       <c r="U337" t="inlineStr"/>
       <c r="V337" s="2" t="n">
-        <v>45232</v>
+        <v>45251</v>
       </c>
     </row>
     <row r="338">
@@ -28183,7 +28287,7 @@
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>2023/11/17</t>
+          <t>2023/11/22</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
@@ -28252,7 +28356,7 @@
         <v>406</v>
       </c>
       <c r="S340" t="n">
-        <v>209525</v>
+        <v>211837</v>
       </c>
       <c r="T340" t="inlineStr">
         <is>
@@ -28261,7 +28365,7 @@
       </c>
       <c r="U340" t="inlineStr"/>
       <c r="V340" s="2" t="n">
-        <v>45247</v>
+        <v>45252</v>
       </c>
     </row>
     <row r="341">
@@ -28863,7 +28967,7 @@
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>2023/10/25</t>
+          <t>2023/11/24</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
@@ -28911,7 +29015,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M348" t="inlineStr"/>
+      <c r="M348" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N348" t="inlineStr"/>
       <c r="O348" t="inlineStr">
         <is>
@@ -28928,7 +29036,7 @@
         <v>0</v>
       </c>
       <c r="S348" t="n">
-        <v>6804</v>
+        <v>6882</v>
       </c>
       <c r="T348" t="inlineStr">
         <is>
@@ -28937,7 +29045,7 @@
       </c>
       <c r="U348" t="inlineStr"/>
       <c r="V348" s="2" t="n">
-        <v>45224</v>
+        <v>45254</v>
       </c>
     </row>
     <row r="349">
@@ -29007,7 +29115,7 @@
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/24</t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
@@ -29055,7 +29163,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M350" t="inlineStr"/>
+      <c r="M350" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N350" t="inlineStr"/>
       <c r="O350" t="inlineStr"/>
       <c r="P350" t="n">
@@ -29068,7 +29180,7 @@
         <v>152</v>
       </c>
       <c r="S350" t="n">
-        <v>6680</v>
+        <v>6979</v>
       </c>
       <c r="T350" t="inlineStr">
         <is>
@@ -29077,7 +29189,7 @@
       </c>
       <c r="U350" t="inlineStr"/>
       <c r="V350" s="2" t="n">
-        <v>45212</v>
+        <v>45254</v>
       </c>
     </row>
     <row r="351">
@@ -30407,7 +30519,7 @@
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>2023/11/09</t>
+          <t>2023/11/22</t>
         </is>
       </c>
       <c r="D366" t="inlineStr">
@@ -30472,7 +30584,7 @@
         <v>1749</v>
       </c>
       <c r="S366" t="n">
-        <v>226296</v>
+        <v>226313</v>
       </c>
       <c r="T366" t="inlineStr">
         <is>
@@ -30481,7 +30593,7 @@
       </c>
       <c r="U366" t="inlineStr"/>
       <c r="V366" s="2" t="n">
-        <v>45239</v>
+        <v>45252</v>
       </c>
     </row>
     <row r="367">
@@ -33699,7 +33811,7 @@
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/20</t>
         </is>
       </c>
       <c r="D408" t="inlineStr"/>
@@ -33757,7 +33869,7 @@
       </c>
       <c r="U408" t="inlineStr"/>
       <c r="V408" s="2" t="n">
-        <v>45215</v>
+        <v>45250</v>
       </c>
     </row>
     <row r="409">
@@ -34653,7 +34765,7 @@
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>2023/11/13</t>
+          <t>2023/11/21</t>
         </is>
       </c>
       <c r="D421" t="inlineStr">
@@ -34693,7 +34805,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M421" t="inlineStr"/>
+      <c r="M421" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N421" t="inlineStr"/>
       <c r="O421" t="inlineStr"/>
       <c r="P421" t="n">
@@ -34706,7 +34822,7 @@
         <v>0</v>
       </c>
       <c r="S421" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="T421" t="inlineStr">
         <is>
@@ -34715,7 +34831,7 @@
       </c>
       <c r="U421" t="inlineStr"/>
       <c r="V421" s="2" t="n">
-        <v>45243</v>
+        <v>45251</v>
       </c>
     </row>
     <row r="422">
@@ -36283,7 +36399,7 @@
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/21</t>
         </is>
       </c>
       <c r="D444" t="inlineStr"/>
@@ -36317,7 +36433,7 @@
       </c>
       <c r="U444" t="inlineStr"/>
       <c r="V444" s="2" t="n">
-        <v>45215</v>
+        <v>45251</v>
       </c>
     </row>
     <row r="445">
@@ -36751,7 +36867,7 @@
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>2023/10/06</t>
+          <t>2023/11/23</t>
         </is>
       </c>
       <c r="D452" t="inlineStr"/>
@@ -36785,7 +36901,7 @@
       </c>
       <c r="U452" t="inlineStr"/>
       <c r="V452" s="2" t="n">
-        <v>45205</v>
+        <v>45253</v>
       </c>
     </row>
     <row r="453">
@@ -37433,7 +37549,7 @@
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>2023/10/12</t>
+          <t>2023/11/22</t>
         </is>
       </c>
       <c r="D465" t="inlineStr"/>
@@ -37475,7 +37591,7 @@
       </c>
       <c r="U465" t="inlineStr"/>
       <c r="V465" s="2" t="n">
-        <v>45211</v>
+        <v>45252</v>
       </c>
     </row>
     <row r="466">
@@ -38009,7 +38125,7 @@
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>2023/11/16</t>
+          <t>2023/11/23</t>
         </is>
       </c>
       <c r="D475" t="inlineStr">
@@ -38070,7 +38186,7 @@
         <v>0</v>
       </c>
       <c r="S475" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="T475" t="inlineStr">
         <is>
@@ -38079,7 +38195,7 @@
       </c>
       <c r="U475" t="inlineStr"/>
       <c r="V475" s="2" t="n">
-        <v>45246</v>
+        <v>45253</v>
       </c>
     </row>
     <row r="476">
@@ -38671,7 +38787,7 @@
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>2023/10/10</t>
+          <t>2023/11/20</t>
         </is>
       </c>
       <c r="D486" t="inlineStr">
@@ -38719,7 +38835,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M486" t="inlineStr"/>
+      <c r="M486" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N486" t="inlineStr"/>
       <c r="O486" t="inlineStr"/>
       <c r="P486" t="n">
@@ -38732,7 +38852,7 @@
         <v>0</v>
       </c>
       <c r="S486" t="n">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="T486" t="inlineStr">
         <is>
@@ -38741,7 +38861,7 @@
       </c>
       <c r="U486" t="inlineStr"/>
       <c r="V486" s="2" t="n">
-        <v>45209</v>
+        <v>45250</v>
       </c>
     </row>
     <row r="487">
@@ -39173,7 +39293,7 @@
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>2023/10/28</t>
+          <t>2023/11/21</t>
         </is>
       </c>
       <c r="D493" t="inlineStr">
@@ -39239,7 +39359,7 @@
       </c>
       <c r="U493" t="inlineStr"/>
       <c r="V493" s="2" t="n">
-        <v>45227</v>
+        <v>45251</v>
       </c>
     </row>
     <row r="494">
